--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\Dis-voir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FREELANCE PROJECT\CLIENTS\Richman\wordle-game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276004B2-70E7-4169-9E10-4B098DEE9C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -208,8 +207,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,16 +579,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -620,7 +619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -634,7 +633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -648,7 +647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -662,7 +661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -676,7 +675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -690,7 +689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -704,7 +703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -718,7 +717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -732,7 +731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -746,7 +745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -761,7 +760,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}"/>
+  <autoFilter ref="A1:E1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\03, 21 (Neuchâtel, AGORA)\devine_voir_(mootüs)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workstation\wlks\wordle\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536BDAF2-EF15-42FF-B6BA-BAC5CA60525A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57191FD-F325-4BDC-A946-7CF2B82DC3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,28 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>release</t>
   </si>
@@ -139,17 +128,6 @@
 « Trois pilleurs de bancomats ont été condamnés hier à des peines de 4 et 3 ans et demi d'emprisonnement par le Tribunal correctionnel de Vevey. » (Le Courrier des 11-13 août 2007, p. 6)</t>
   </si>
   <si>
-    <t>pouet</t>
-  </si>
-  <si>
-    <t>Pouet, pouette (adj. et n.)</t>
-  </si>
-  <si>
-    <t>Quelque chose ou quelqu’un de laid, vilain, malhonnête ou encore méchant.
-La variante « peut » (ou « peute ») est propre au Jura et au Jura Bernois.
-« Elle nous a rappelé, il y a quelques mois encore, qu'elle avait formellement interdit à Léon de venir l'applaudir, se trouvant trop « pouette » aux yeux de son prétendant. » (A. Itten, R. Bastian, En çà... en là!, 1975, p.68)</t>
-  </si>
-  <si>
     <t>rostigraben</t>
   </si>
   <si>
@@ -351,9 +329,6 @@
   </si>
   <si>
     <t>Cramine (n.f.)</t>
-  </si>
-  <si>
-    <t>day_23</t>
   </si>
   <si>
     <t>schlouc</t>
@@ -402,9 +377,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,15 +713,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -778,7 +752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -792,7 +766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -806,7 +780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -820,7 +794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -834,7 +808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -848,7 +822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -862,7 +836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -870,13 +844,13 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -890,121 +864,121 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
       <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
       <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
       <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
       <c r="D17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -1013,108 +987,64 @@
         <v>76</v>
       </c>
       <c r="D19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
       <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
       <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>86</v>
       </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
         <v>89</v>
       </c>
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D23" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D34" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}"/>

--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workstation\wlks\wordle\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57191FD-F325-4BDC-A946-7CF2B82DC3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1A917F-4A19-4D51-9DC0-99515B7C3057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>release</t>
   </si>
@@ -128,6 +128,14 @@
 « Trois pilleurs de bancomats ont été condamnés hier à des peines de 4 et 3 ans et demi d'emprisonnement par le Tribunal correctionnel de Vevey. » (Le Courrier des 11-13 août 2007, p. 6)</t>
   </si>
   <si>
+    <t>Pouet, pouette (adj. et n.)</t>
+  </si>
+  <si>
+    <t>Quelque chose ou quelqu’un de laid, vilain, malhonnête ou encore méchant.
+La variante « peut » (ou « peute ») est propre au Jura et au Jura Bernois.
+« Elle nous a rappelé, il y a quelques mois encore, qu'elle avait formellement interdit à Léon de venir l'applaudir, se trouvant trop « pouette » aux yeux de son prétendant. » (A. Itten, R. Bastian, En çà... en là!, 1975, p.68)</t>
+  </si>
+  <si>
     <t>rostigraben</t>
   </si>
   <si>
@@ -331,11 +339,17 @@
     <t>Cramine (n.f.)</t>
   </si>
   <si>
+    <t>day_23</t>
+  </si>
+  <si>
     <t>schlouc</t>
   </si>
   <si>
     <t>S’écrit aussi « chlouc », « chlouque », « schlou(c)k ». Il s’agit d’une petite quantité, petite gorgée de boisson (le plus souvent alcoolisée). Connu dans toute la Suisse romande, mais surtout connu à Neuchâtel, Berne et le Jura.
 « Enfin après une bonne pause, re-départ vers le bas du Valis et le guide nous emmène vers Crans-Montana pour boire un schlouk. » (Harley Owners Group, Sortie en Valais, 18 août 2002)</t>
+  </si>
+  <si>
+    <t>pouette</t>
   </si>
 </sst>
 </file>
@@ -713,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,13 +827,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -827,13 +841,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +855,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
@@ -855,13 +869,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,74 +883,74 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -945,32 +959,32 @@
         <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
         <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
       </c>
       <c r="D18" t="s">
         <v>71</v>
@@ -978,24 +992,24 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
         <v>75</v>
       </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>78</v>
@@ -1006,44 +1020,58 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
         <v>81</v>
-      </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
         <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
       </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>92</v>
+      <c r="D24" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workstation\wlks\wordle\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1A917F-4A19-4D51-9DC0-99515B7C3057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FBB711-318E-4870-B728-6260C6EB8B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>release</t>
   </si>
@@ -128,14 +128,6 @@
 « Trois pilleurs de bancomats ont été condamnés hier à des peines de 4 et 3 ans et demi d'emprisonnement par le Tribunal correctionnel de Vevey. » (Le Courrier des 11-13 août 2007, p. 6)</t>
   </si>
   <si>
-    <t>Pouet, pouette (adj. et n.)</t>
-  </si>
-  <si>
-    <t>Quelque chose ou quelqu’un de laid, vilain, malhonnête ou encore méchant.
-La variante « peut » (ou « peute ») est propre au Jura et au Jura Bernois.
-« Elle nous a rappelé, il y a quelques mois encore, qu'elle avait formellement interdit à Léon de venir l'applaudir, se trouvant trop « pouette » aux yeux de son prétendant. » (A. Itten, R. Bastian, En çà... en là!, 1975, p.68)</t>
-  </si>
-  <si>
     <t>rostigraben</t>
   </si>
   <si>
@@ -339,17 +331,11 @@
     <t>Cramine (n.f.)</t>
   </si>
   <si>
-    <t>day_23</t>
-  </si>
-  <si>
     <t>schlouc</t>
   </si>
   <si>
     <t>S’écrit aussi « chlouc », « chlouque », « schlou(c)k ». Il s’agit d’une petite quantité, petite gorgée de boisson (le plus souvent alcoolisée). Connu dans toute la Suisse romande, mais surtout connu à Neuchâtel, Berne et le Jura.
 « Enfin après une bonne pause, re-départ vers le bas du Valis et le guide nous emmène vers Crans-Montana pour boire un schlouk. » (Harley Owners Group, Sortie en Valais, 18 août 2002)</t>
-  </si>
-  <si>
-    <t>pouette</t>
   </si>
 </sst>
 </file>
@@ -727,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,13 +813,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -855,10 +841,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
@@ -869,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
         <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -883,74 +869,74 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -959,32 +945,32 @@
         <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
         <v>71</v>
@@ -992,24 +978,24 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
         <v>78</v>
@@ -1020,58 +1006,44 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
         <v>83</v>
       </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
         <v>89</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>92</v>
-      </c>
-      <c r="D23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workstation\wlks\wordle\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FBB711-318E-4870-B728-6260C6EB8B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEDBB22-B8FF-493E-90C9-1C871BA8CBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>release</t>
   </si>
@@ -128,16 +128,6 @@
 « Trois pilleurs de bancomats ont été condamnés hier à des peines de 4 et 3 ans et demi d'emprisonnement par le Tribunal correctionnel de Vevey. » (Le Courrier des 11-13 août 2007, p. 6)</t>
   </si>
   <si>
-    <t>rostigraben</t>
-  </si>
-  <si>
-    <t>Röstigraben (n. m.)</t>
-  </si>
-  <si>
-    <t>Littéralement le « fossé des rösti » ; dénomination métaphorique et plaisante du manque de communication et d'intercompréhension (imaginaire pour les uns, bien réel pour les autres) entre Suisses romands et Suisses alémaniques.
-« Ce qui est sûr c'est que le « Röstigraben » est une réalité bien présente dans le hockey suisse et ce depuis des années. » (La Liberté du 13 juin 1997, p. 35).</t>
-  </si>
-  <si>
     <t>benzine</t>
   </si>
   <si>
@@ -186,16 +176,6 @@
     <t>day_12</t>
   </si>
   <si>
-    <t>foutimasser</t>
-  </si>
-  <si>
-    <t>Foutimasser (v. intr.)</t>
-  </si>
-  <si>
-    <t>Se livrer à une occupation mal définie; faire mal quelque chose, sans suite dans les idées : perdre son temps à faire des choses inutiles; faire quelque chose de louche. L’expression est bien connue partout sauf dans JU.
-« Les locataires du dessous, un œil ouvert et les oreilles attentives, se sont demandé ce que diable pouvait bien foutimasser Nicole, à cette heure-là. » (Bouquet du 10 novembre 1976, p.16)</t>
-  </si>
-  <si>
     <t>day_13</t>
   </si>
   <si>
@@ -302,9 +282,6 @@
     <t>day_20</t>
   </si>
   <si>
-    <t>day_21</t>
-  </si>
-  <si>
     <t>ristrette</t>
   </si>
   <si>
@@ -313,9 +290,6 @@
   <si>
     <t>Ou « ristretto » aussi, emprunté de l’italien … ristretto ! Il s’agit d’un petit café très fort, fait à la vapeur au percolateur, encore plus petit qu’un « expresse » (ou « expresso »).
 « Il fait beau, à Berne, le 7 février. Il est 10 heures. J'ai bu un ristretto au Grand Café du Schweizerhof, j'ai marché dans des rues jaunes, maintenant j'entre au Kunstmuseum. » (J. Chessex, Morgane Madrigal, 1990, p. 18).</t>
-  </si>
-  <si>
-    <t>day_22</t>
   </si>
   <si>
     <t>cramine</t>
@@ -713,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,10 +804,10 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -855,13 +829,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,80 +843,80 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -950,100 +924,72 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>73</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
         <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
       </c>
       <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
         <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workstation\wlks\wordle\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\03, 21 (Neuchâtel, AGORA)\devine_voir_(mootüs)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEDBB22-B8FF-493E-90C9-1C871BA8CBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759E340B-D965-4E28-AC63-5D54796FECDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>release</t>
   </si>
@@ -128,6 +139,27 @@
 « Trois pilleurs de bancomats ont été condamnés hier à des peines de 4 et 3 ans et demi d'emprisonnement par le Tribunal correctionnel de Vevey. » (Le Courrier des 11-13 août 2007, p. 6)</t>
   </si>
   <si>
+    <t>pouet</t>
+  </si>
+  <si>
+    <t>Pouet, pouette (adj. et n.)</t>
+  </si>
+  <si>
+    <t>Quelque chose ou quelqu’un de laid, vilain, malhonnête ou encore méchant.
+La variante « peut » (ou « peute ») est propre au Jura et au Jura Bernois.
+« Elle nous a rappelé, il y a quelques mois encore, qu'elle avait formellement interdit à Léon de venir l'applaudir, se trouvant trop « pouette » aux yeux de son prétendant. » (A. Itten, R. Bastian, En çà... en là!, 1975, p.68)</t>
+  </si>
+  <si>
+    <t>rostigraben</t>
+  </si>
+  <si>
+    <t>Röstigraben (n. m.)</t>
+  </si>
+  <si>
+    <t>Littéralement le « fossé des rösti » ; dénomination métaphorique et plaisante du manque de communication et d'intercompréhension (imaginaire pour les uns, bien réel pour les autres) entre Suisses romands et Suisses alémaniques.
+« Ce qui est sûr c'est que le « Röstigraben » est une réalité bien présente dans le hockey suisse et ce depuis des années. » (La Liberté du 13 juin 1997, p. 35).</t>
+  </si>
+  <si>
     <t>benzine</t>
   </si>
   <si>
@@ -176,6 +208,16 @@
     <t>day_12</t>
   </si>
   <si>
+    <t>foutimasser</t>
+  </si>
+  <si>
+    <t>Foutimasser (v. intr.)</t>
+  </si>
+  <si>
+    <t>Se livrer à une occupation mal définie; faire mal quelque chose, sans suite dans les idées : perdre son temps à faire des choses inutiles; faire quelque chose de louche. L’expression est bien connue partout sauf dans JU.
+« Les locataires du dessous, un œil ouvert et les oreilles attentives, se sont demandé ce que diable pouvait bien foutimasser Nicole, à cette heure-là. » (Bouquet du 10 novembre 1976, p.16)</t>
+  </si>
+  <si>
     <t>day_13</t>
   </si>
   <si>
@@ -282,6 +324,9 @@
     <t>day_20</t>
   </si>
   <si>
+    <t>day_21</t>
+  </si>
+  <si>
     <t>ristrette</t>
   </si>
   <si>
@@ -292,6 +337,9 @@
 « Il fait beau, à Berne, le 7 février. Il est 10 heures. J'ai bu un ristretto au Grand Café du Schweizerhof, j'ai marché dans des rues jaunes, maintenant j'entre au Kunstmuseum. » (J. Chessex, Morgane Madrigal, 1990, p. 18).</t>
   </si>
   <si>
+    <t>day_22</t>
+  </si>
+  <si>
     <t>cramine</t>
   </si>
   <si>
@@ -305,18 +353,242 @@
     <t>Cramine (n.f.)</t>
   </si>
   <si>
+    <t>day_23</t>
+  </si>
+  <si>
     <t>schlouc</t>
   </si>
   <si>
     <t>S’écrit aussi « chlouc », « chlouque », « schlou(c)k ». Il s’agit d’une petite quantité, petite gorgée de boisson (le plus souvent alcoolisée). Connu dans toute la Suisse romande, mais surtout connu à Neuchâtel, Berne et le Jura.
 « Enfin après une bonne pause, re-départ vers le bas du Valis et le guide nous emmène vers Crans-Montana pour boire un schlouk. » (Harley Owners Group, Sortie en Valais, 18 août 2002)</t>
+  </si>
+  <si>
+    <t>day_24</t>
+  </si>
+  <si>
+    <t>day_25</t>
+  </si>
+  <si>
+    <t>day_26</t>
+  </si>
+  <si>
+    <t>day_27</t>
+  </si>
+  <si>
+    <t>day_28</t>
+  </si>
+  <si>
+    <t>day_29</t>
+  </si>
+  <si>
+    <t>day_30</t>
+  </si>
+  <si>
+    <t>day_31</t>
+  </si>
+  <si>
+    <t>day_32</t>
+  </si>
+  <si>
+    <t>sixtus</t>
+  </si>
+  <si>
+    <t>Sixtus (n.m)</t>
+  </si>
+  <si>
+    <t>Terme utilisé en Suisse romande pour désigner une épingle à cheveux, généralement métallique, qui permet de fixer les cheveux long. Il est souvent utilisé pour stabiliser des chignons ou maintenir des mèches dans des coiffures complexes.
+« Si vos nuits sont généralement agitées, glissez un sixtus sur le sommet de la tête et un à la base de la nuque pour maintenir en place votre ou vos filets. » (Construire, du 20 mars 1985, p.4)</t>
+  </si>
+  <si>
+    <t>boguet</t>
+  </si>
+  <si>
+    <t>mazot</t>
+  </si>
+  <si>
+    <t>Boguet (n.m)</t>
+  </si>
+  <si>
+    <t>Cyclomoteur, vélomoteur. En Suisse, en fonction des cantons, il s’agit du premier véhicule motorisée accessible avec permis de conduire : 14 ans généralement. Dans le Jura, il est courant de dire « teuf » à la place de Boguet. Son origine ? Incertaine, mais possiblement de l’anglais buggy ‘voiture légère à deux roues’.
+« J’ai eu le flash à 10 ans. Durant l’adolescence, je transformais mes boguets dans l’idée de travailler plus tard sur des Harley. » (Le Nouveau Quotidien, 29 juin 1995, p.32.)</t>
+  </si>
+  <si>
+    <t>Mazot (n.m.)</t>
+  </si>
+  <si>
+    <t>Petit mas de pierre rustique comprenant communément chambre, cuisine et cellier, servant de logement aux montagnards lors de séjours dans les vignobles. Par extension, bâtiment traditionnel des montagnards valaisans.
+« Combien de véritables petits « temples du vin » ne se dissimulent-ils pas dans les entralles de ces accueuillants « mazots » brûlés par le soleil ? » (J. Folllonier et al., Vins du valais, 1977, p.170)</t>
+  </si>
+  <si>
+    <t>moindre</t>
+  </si>
+  <si>
+    <t>tiaffe</t>
+  </si>
+  <si>
+    <t>Moindre (adj.)</t>
+  </si>
+  <si>
+    <t>Être faible, malingre, un peu affaibli … Tout simplement amoindri dans ses forces, mais aussi atteint moralement. En revanche, la locution « LA moindre » signifie un peu, un tout petit peu, alors que « LE moindre » veut dire, en Valais, le pire.
+« Les chirurgiens d’aujourd’hui vous endorment que c’en est une merveille. Pourtant, au réveil, on se sent tout moindre… » (G. Glasson, La Vie d’un crayon de braise, 1993, p.31)</t>
+  </si>
+  <si>
+    <t>Tiaffe (n. f.)</t>
+  </si>
+  <si>
+    <t>« Mais quelle tiaffe il fait ! » Très (trop) forte chaleur. Aussi diaffe ou tchaffe en fonction des cantons. Intéressant, il s’agit aussi d’un terme qui désigne la neige sale et fondante qui se transforme gentiment en boue.
+« Moi, le moment le plus pénible, c’est quand la tiède devient la tiaffe… on coule de partout ! » (Oin-Oin, RSR 1 2 jjuillet 1977).</t>
+  </si>
+  <si>
+    <t>jodleur</t>
+  </si>
+  <si>
+    <t>Jodleur (n.m.)</t>
+  </si>
+  <si>
+    <t>Chanteur de JODEL. Il s’agit d’un chant alpin produit en passant rapidement et sans transition de la voix de tête à celle de poitrine. À l’origine, il s’agissait d’un moyen de communication en haute montagne ! S’écrit aussi YODLEUR ou JODLER.
+« Le moral, dit-on pourtant à bord, est toujours intact. Comme l’est l’enthousiasme des spectateurs accourus en masse, jodleurs, cors des alpes et guggenmusik en tête. » Le Nouveau Quotidien, du 24 janvier 1994, p.23)</t>
+  </si>
+  <si>
+    <t>buegner</t>
+  </si>
+  <si>
+    <t>coussin</t>
+  </si>
+  <si>
+    <t>Beugner (v. tr.)</t>
+  </si>
+  <si>
+    <t>Heurter quelque chose en faisant une bosse. Bosseler, cabosser. Le résultat est donc un beugne ! On peut aussi se beugner (se cogner), par exemple en se beugnant le front contre une poutre.
+« Hélas, le garage est tellement étroit que les portes du bus et celles du garage ont déjà été beugnées plusieurs fois. » (Le Rai-Tiai-Tiai aidjolat [journal de carnaval de Ajoie (JU)], n° 18, 1995, p.17)</t>
+  </si>
+  <si>
+    <t>Et oui ! Il s’agit d’un mot suisse (et belge…). En France, c’est plutôt oreiller qu’on utilise.
+« Elle sourit d’avoir lu dans un journal qu’en Amérique on fabriquait, pour les insomniaques, des coussins qui imitent à la perfection le ronronnement. Il vaut mieux avoir de vrais chats, conclut-elle. » (C. Bille, La Fraise noire, 1968, p.212).</t>
+  </si>
+  <si>
+    <t>Gentiment (adv.)</t>
+  </si>
+  <si>
+    <t>gentiment</t>
+  </si>
+  <si>
+    <t>Lentement, sans hâte ; graduellement, peu à peu ; doucement, calmement, paisiblement. Gentiment, mais sûrement ! Innovation sémantique que l’on partage aussi avec nos amis Belges.
+« Maintenant, l’odeur commence à vaciller dans la cuisine, j’entrouvre le four pour y guigner. Il s’arrondit gentiment déjà fécondé, il gonfle brunit durcit doucement, sans un mouvement. » (A.-L. Grobéty, Zéro positif, 1975, p.24)</t>
+  </si>
+  <si>
+    <t>day_33</t>
+  </si>
+  <si>
+    <t>day_34</t>
+  </si>
+  <si>
+    <t>day_35</t>
+  </si>
+  <si>
+    <t>day_36</t>
+  </si>
+  <si>
+    <t>day_37</t>
+  </si>
+  <si>
+    <t>day_38</t>
+  </si>
+  <si>
+    <t>day_39</t>
+  </si>
+  <si>
+    <t>day_40</t>
+  </si>
+  <si>
+    <t>chenis</t>
+  </si>
+  <si>
+    <t>Ou chenis, chenil, chenit. Terme familier qui englope aussi bien la poussière, les déchets, que le désorde et la pagaille, comme les effets personnels devenus encombrants.
+« Peut-on critiquer les uns ou les autres ? Non. Il faut bien jeter ce «chenil» à une place, là où il n'y a pas de ramassage de balayures [...]. » (W. Dubois, En poussant nos clédars, 1959, p. 99)</t>
+  </si>
+  <si>
+    <t>piolet</t>
+  </si>
+  <si>
+    <t>Cheni (n.m.)</t>
+  </si>
+  <si>
+    <t>Coussin (n.m.)</t>
+  </si>
+  <si>
+    <t>Piolet (n.m.)</t>
+  </si>
+  <si>
+    <t>Bâton de ski. Extension sémantique par analogie à partir du sens du français général piolet «bâton ferré [...] à l'usage des alpinistes». S’utilise principalement dans le Jura et le Jura bernois, dans le nord du Canton de Vaud et à Neuchâtel.
+« Têtu comme il l'est, on est sûr qu'il y retournera en Valais. Quitte à revenir à cheval avec les piolets dans les sabretaches [= sorte de fourreau]. » (Le Poilie, 1995, p.65)</t>
+  </si>
+  <si>
+    <t>deguille</t>
+  </si>
+  <si>
+    <t>Déguille (n.f.)</t>
+  </si>
+  <si>
+    <t>Peur, frayeur, inquiétude dans les cantons de Neuchâtel, Berne et du Jura ; mais un fou rire dans le canton de Vaud !
+« [...] de sa voix douce ou puissante, grand-maman nous faisait rire, pleurer, nous donnait la déguille. » (W. Dubois, 1959 En poussant nos clédars, p. 183)</t>
+  </si>
+  <si>
+    <t>acouet</t>
+  </si>
+  <si>
+    <t>Acouet (n. m.)</t>
+  </si>
+  <si>
+    <t>Aussi accouet. Terme familier pour le courage, l’énergie, un élan. Propre à Neuchâtel et Vaud. Paraît limité aujourd'hui à l'usage oral… Plutôt dans les locutions « avoir de l’acouet » ou « ne pas être d’acouet ».
+« Voilà bientôt cinquante ans que, tous les matins, ma Louise me dit qu'elle n'a pas d'acouet. » (Chronique de R. Riesen, La Suisse, 1er décembre 1993, p. 22)</t>
+  </si>
+  <si>
+    <t>zwieback</t>
+  </si>
+  <si>
+    <t>Zwieback (n.m.)</t>
+  </si>
+  <si>
+    <t>Emprunt à l’allemand du même sens, littéralement « cuit deux fois ». Biscotte légèrement sucrée (ou édulcorée avec des succédanés, dans le cas de certains types de zwiebacks diététiques), que l'on tartine de beurre, de fromage, de confiture, de miel, etc.
+« Il combina une diététique. Il rejeta le pain, il eut le culte des salades, des fruits. Lait en poudre, café de malt, zwiebacks. Cure de miel, de raisins, de pommes. » (M. Chappaz, La Veillée des Vikings, 1990, p. 19)</t>
+  </si>
+  <si>
+    <t>panosse</t>
+  </si>
+  <si>
+    <t>Panosse (n.f.)</t>
+  </si>
+  <si>
+    <t>Grosse pièce de toile épaisse servant à laver les sols, à éponger. En France, mais aussi en Suisse, une serpillère. Passer la panosse devient aussi « panosser ».
+« Sur fond de ciment coulé jadis sur les carrons de terre cuite, fendu, inégal, usé et usant les panosses. »  L. Dutoit, Le Courage de la terre. 1950-2000, une paysanne raconte, 2003, p. 15)</t>
+  </si>
+  <si>
+    <t>torree</t>
+  </si>
+  <si>
+    <t>Torrée (n.f.)</t>
+  </si>
+  <si>
+    <t>Repas en plein air où l'on consomme des saucissons et des pommes de terre cuits sous les cendres et la braise d'un grand feu champêtre. (Par ext.) Grillade en forêt, pique-nique où l'on fait un feu pour griller quelques aliments. Se dit principalement à Neuchâtel et dans le Jura et Jura bernois.
+« Vous désirez faire des connaissances? Venez à la torrée du groupe positif, dimanche 7 octobre. Abris en cas de pluie. » (petite annonce dans le Courrier neuchâtelois, 3 octobre, 2007 p.18)</t>
+  </si>
+  <si>
+    <t>bobette</t>
+  </si>
+  <si>
+    <t>Bobette (n.f.)</t>
+  </si>
+  <si>
+    <t>Féminin de bobet. Terme familier pour designer quelqu’un de niais, sot, nigaud. On parle souvent du « bobet du village »
+« Les agressifs se moquent d'Echallens, du vieux bailliage de Berne et de Fribourg, de ses mariages consanguins, de ses repiquages. Vase clos : à force de se marier entre eux ils ont le record des bobets. » (J. Chessex, Portrait des Vaudois, 1969 p. 121)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +601,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -351,8 +636,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,15 +981,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -726,7 +1020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -740,7 +1034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -754,7 +1048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -768,7 +1062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -782,7 +1076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -796,7 +1090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -804,13 +1098,13 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -818,169 +1112,169 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>67</v>
       </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>77</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
@@ -989,7 +1283,289 @@
         <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,11 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\03, 21 (Neuchâtel, AGORA)\devine_voir_(mootüs)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759E340B-D965-4E28-AC63-5D54796FECDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$1</definedName>
@@ -403,7 +402,7 @@
     <t>boguet</t>
   </si>
   <si>
-    <t>mazot</t>
+    <t>mazots</t>
   </si>
   <si>
     <t>Boguet (n.m)</t>
@@ -588,7 +587,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,13 +596,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -633,26 +638,120 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -980,16 +1079,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A20">
+      <selection pane="topLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.4242857142857" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1020,7 +1119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="14.5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1048,7 +1147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1076,7 +1175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1090,7 +1189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1104,7 +1203,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1118,7 +1217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="14.5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1132,7 +1231,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="14.5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1146,7 +1245,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="14.5">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1160,7 +1259,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="14.5">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1174,7 +1273,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="14.5">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1188,7 +1287,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="14.5">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1202,7 +1301,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="14.5">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1216,7 +1315,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="14.5">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1230,7 +1329,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="14.5">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1244,7 +1343,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="14.5">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1258,7 +1357,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="14.5">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1272,7 +1371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="14.5">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1286,7 +1385,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="14.5">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -1300,7 +1399,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="14.5">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -1314,7 +1413,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="14.5">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -1328,7 +1427,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="14.5">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -1342,7 +1441,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="14.5">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -1356,7 +1455,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="14.5">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -1370,7 +1469,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="14.5">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -1385,7 +1484,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="14.5">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -1399,7 +1498,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="14.5">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -1413,7 +1512,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="14.5">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -1427,7 +1526,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="14.5">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -1441,7 +1540,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="14.5">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -1455,7 +1554,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="14.5">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -1469,7 +1568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="14.5">
       <c r="A35" t="s">
         <v>133</v>
       </c>
@@ -1484,7 +1583,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="14.5">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -1498,7 +1597,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="14.5">
       <c r="A37" t="s">
         <v>135</v>
       </c>
@@ -1512,7 +1611,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="14.5">
       <c r="A38" t="s">
         <v>136</v>
       </c>
@@ -1526,7 +1625,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="14.5">
       <c r="A39" t="s">
         <v>137</v>
       </c>
@@ -1540,7 +1639,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="14.5">
       <c r="A40" t="s">
         <v>138</v>
       </c>
@@ -1554,7 +1653,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="14.5">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -1569,8 +1668,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\03, 21 (Neuchâtel, AGORA)\devine_voir_(mootüs)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB52556-234F-4208-B062-6A5A93EABB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$1</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>release</t>
   </si>
@@ -402,9 +403,6 @@
     <t>boguet</t>
   </si>
   <si>
-    <t>mazots</t>
-  </si>
-  <si>
     <t>Boguet (n.m)</t>
   </si>
   <si>
@@ -449,9 +447,6 @@
 « Le moral, dit-on pourtant à bord, est toujours intact. Comme l’est l’enthousiasme des spectateurs accourus en masse, jodleurs, cors des alpes et guggenmusik en tête. » Le Nouveau Quotidien, du 24 janvier 1994, p.23)</t>
   </si>
   <si>
-    <t>buegner</t>
-  </si>
-  <si>
     <t>coussin</t>
   </si>
   <si>
@@ -581,13 +576,32 @@
   <si>
     <t>Féminin de bobet. Terme familier pour designer quelqu’un de niais, sot, nigaud. On parle souvent du « bobet du village »
 « Les agressifs se moquent d'Echallens, du vieux bailliage de Berne et de Fribourg, de ses mariages consanguins, de ses repiquages. Vase clos : à force de se marier entre eux ils ont le record des bobets. » (J. Chessex, Portrait des Vaudois, 1969 p. 121)</t>
+  </si>
+  <si>
+    <t>beugner</t>
+  </si>
+  <si>
+    <t>mazots</t>
+  </si>
+  <si>
+    <t>totche</t>
+  </si>
+  <si>
+    <t>day_41</t>
+  </si>
+  <si>
+    <t>Totché (n.m.)</t>
+  </si>
+  <si>
+    <t>Amis jurassiens, c'est la Saint-Martin ! Bien sûr que vous connaissez le totché. Pour les autres, il s'agit d'un gâteau salé à la crème aigre. Typique de fête qui se déroule ce weekend. S'écrit aussi touetché; touètché; totchè; touétché; toétché; touatché.
+« Passés à table vers une heure de l'après-midi, on y trônait depuis deux bonnes heures au moment où les «totchés», gâteaux à la crème épaisse, étaient proposés aux convives. » J. Montandon, 1975, Le Jura à table, p. 51.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,19 +610,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -638,120 +646,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1079,16 +994,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:F41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A20">
-      <selection pane="topLeft" activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4242857142857" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1119,7 +1034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1133,7 +1048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1175,7 +1090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1189,7 +1104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1203,7 +1118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1217,7 +1132,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1231,7 +1146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1245,7 +1160,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1259,7 +1174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1273,7 +1188,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1287,7 +1202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1301,7 +1216,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1315,7 +1230,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1329,7 +1244,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1343,7 +1258,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1357,7 +1272,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1371,7 +1286,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1385,7 +1300,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -1399,7 +1314,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -1413,7 +1328,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -1427,7 +1342,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -1441,7 +1356,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -1449,226 +1364,241 @@
         <v>109</v>
       </c>
       <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
         <v>111</v>
       </c>
-      <c r="D26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.5">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
         <v>113</v>
       </c>
-      <c r="D27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.5">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
         <v>117</v>
       </c>
-      <c r="D28" t="s">
-        <v>118</v>
-      </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="14.5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.5">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="14.5">
+        <v>167</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="14.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>104</v>
       </c>
       <c r="B32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
         <v>125</v>
       </c>
-      <c r="C32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14.5">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>105</v>
       </c>
       <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
         <v>129</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="14.5">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>132</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C36" t="s">
         <v>143</v>
       </c>
-      <c r="D34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="14.5">
-      <c r="A35" t="s">
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>133</v>
       </c>
-      <c r="B35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B37" t="s">
         <v>145</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C37" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" ht="14.5">
-      <c r="A36" t="s">
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>134</v>
       </c>
-      <c r="B36" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B38" t="s">
         <v>148</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C38" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.5">
-      <c r="A37" t="s">
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>135</v>
       </c>
-      <c r="B37" t="s">
-        <v>150</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B39" t="s">
         <v>151</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C39" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.5">
-      <c r="A38" t="s">
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>136</v>
       </c>
-      <c r="B38" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B40" t="s">
         <v>154</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C40" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.5">
-      <c r="A39" t="s">
+      <c r="D40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>137</v>
       </c>
-      <c r="B39" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B41" t="s">
         <v>157</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C41" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="14.5">
-      <c r="A40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D41" t="s">
         <v>159</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" t="s">
         <v>160</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C42" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.5">
-      <c r="A41" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="D42" t="s">
         <v>162</v>
       </c>
-      <c r="C41" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" t="s">
-        <v>164</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:E1" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\03, 21 (Neuchâtel, AGORA)\devine_voir_(mootüs)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB52556-234F-4208-B062-6A5A93EABB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98497F52-98D3-40B3-890C-0F3ABF8EFA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>release</t>
   </si>
@@ -595,6 +595,149 @@
   <si>
     <t>Amis jurassiens, c'est la Saint-Martin ! Bien sûr que vous connaissez le totché. Pour les autres, il s'agit d'un gâteau salé à la crème aigre. Typique de fête qui se déroule ce weekend. S'écrit aussi touetché; touètché; totchè; touétché; toétché; touatché.
 « Passés à table vers une heure de l'après-midi, on y trônait depuis deux bonnes heures au moment où les «totchés», gâteaux à la crème épaisse, étaient proposés aux convives. » J. Montandon, 1975, Le Jura à table, p. 51.</t>
+  </si>
+  <si>
+    <t>day_42</t>
+  </si>
+  <si>
+    <t>day_43</t>
+  </si>
+  <si>
+    <t>day_44</t>
+  </si>
+  <si>
+    <t>day_45</t>
+  </si>
+  <si>
+    <t>day_46</t>
+  </si>
+  <si>
+    <t>day_47</t>
+  </si>
+  <si>
+    <t>day_48</t>
+  </si>
+  <si>
+    <t>day_49</t>
+  </si>
+  <si>
+    <t>day_50</t>
+  </si>
+  <si>
+    <t>day_51</t>
+  </si>
+  <si>
+    <t>day_52</t>
+  </si>
+  <si>
+    <t>automate</t>
+  </si>
+  <si>
+    <t>porreau</t>
+  </si>
+  <si>
+    <t>Automate (n.m)</t>
+  </si>
+  <si>
+    <t>Appareil public qui distribue des denrées, des objets ou des tickets après introduction de pièces de monnaie (ou éventuellement de billets, d'une carte magnétique) dans une fente. S’il est possible de retrouver le terme en France, le mot constitue de toute façon un helvétisme de fréquence, probablement dû à l'influence de l'all. Automat n. m. «distributeur automatique».
+« Souvent, dans les lavabos de nos écoles, on trouve des essuie-mains trempés et sales. Les écoles zurichoises pour y remédier, installent depuis quelque temps des automates qui permettent d'avoir des essuie-mains toujours propres et secs. » La Sentinelle, 21 mai 1968)</t>
+  </si>
+  <si>
+    <t>Porreau (n.m.)</t>
+  </si>
+  <si>
+    <t>Plante potagère de forme allongée, au pied blanc et aux feuilles vertes, consommée de préférence en soupe, en gâteau, en papet ou en gratin.
+« La saucisse au foie et la saucisse aux choux se servent avec le papet de porreaux, la salade rouge [= salade de betteraves]. » (J. Chessex, Portrait des Vaudois, 1969, p. 109)</t>
+  </si>
+  <si>
+    <t>couenne</t>
+  </si>
+  <si>
+    <t>Croûte du fromage, comme par exemple une couenne de gruyère. Son sens premier « peau du porc » est aussi utilisé en Suisse, mais son portant concernant le fromage est un helvétisme !
+« Un vieux fromage avec un rien de pourri dans la couenne précédait un énorme vacherin de La Vallée. » ( A. Itten &amp; R. Bastian, En çà... en là!, 1975, p. 27)</t>
+  </si>
+  <si>
+    <t>Couenne (n.f.)</t>
+  </si>
+  <si>
+    <t>Nilles (n.f. pl.)</t>
+  </si>
+  <si>
+    <t>nilles</t>
+  </si>
+  <si>
+    <t>Articulation des doigts, jointures, phalanges. On dit « avoir les nilles enflées ». S’écrit aussi nies, reflétant ainsi la prononciation égale des mots en -ie et en -ille dans le Canton de Vaud !
+« Les nies blanchissaient dans l'effort du doigt pour enfoncer le petit dard dans la paroi. » J. Chessex, L'Ogre, 1973, p. 108.</t>
+  </si>
+  <si>
+    <t>jasser</t>
+  </si>
+  <si>
+    <t>Jasser (v. intr.)</t>
+  </si>
+  <si>
+    <t>S’écrit aussi « Yasser ». Simplement, jouer au jass. Il s’agit d’un jeu de cartes de lointaine origine hollandaise. Il est très populaire en Suisse romande et alémanique. Un lointain parent de la belote.
+« Le café est plein. On joue au yass à toutes les tables. François a le sourire mauvais. Le yass : leur seul plaisir! Ça vaut vraiment la peine de se crever toute la semaine pour tuer le dimanche ainsi, en tapant le carton et en buvant des demis. » (S. Chevallier, Le Silence de la terre, 1961, p. 47)</t>
+  </si>
+  <si>
+    <t>boiler</t>
+  </si>
+  <si>
+    <t>Boiler (n.m.)</t>
+  </si>
+  <si>
+    <t>Chauffe-eau, appareil électrique ou au gaz servant à chauffer et à garder chaude l'eau destinée à la consommation domestique. Il s’agit, encore et toujours, d’un emprunt à l’allemand.
+« Pour vos achats et réparations de MACHINES A LAVER, REFRIGERATEURS, CONGELATEURS, ainsi que le détartrage de votre BOILER et CHAUDIERE COMBINEE. Une seule et bonne adresse [...]. » (Feuille d'Avis de Moutier, 13 mai 1971)</t>
+  </si>
+  <si>
+    <t>Amours (n.f. pl.)</t>
+  </si>
+  <si>
+    <t>amours</t>
+  </si>
+  <si>
+    <t>Les dernières gouttes d'une bouteille de vin. Il n'est guère senti comme helvétisme, si l'on en juge par son absence de tous les glossaires consultés : pourtant, il s’agit bien d’une création suisse romande ! Lorsque les amours sont versés, on entend régulièrement: «Tu vas te marier dans l'année».
+Comme le disait un ami en éclusant les amours d'une bouteille de rouge : «Tu n'imagines pas la catastrophe si mes collègues savaient combien je gagne pour la quantité de travail que j'abats [...].» (L'Hebdo du 20 juin 1996)</t>
+  </si>
+  <si>
+    <t>Spaetzlis (n.m. pl.)</t>
+  </si>
+  <si>
+    <t>spaetzlis</t>
+  </si>
+  <si>
+    <t>S’écrit aussi spätzli(s) ou spätzle(s). Petites lanières de pâte (farine, œufs, sel) cuites dans l'eau, qu'on fait revenir dans le beurre et qu'on sert normalement pour accompagner la viande (émincé de veau, rôti, gibier, etc.)
+Les spaghetti, les nouilles larges ou minces, les bouclettes [= nouilles en forme de petites boucles], les nœuds de cravate, les macaronis, les spätzlis, les cornettes, et j'en passe... Il y a vraiment un grand choix de pâtes [...]. (Coopération, 9 septembre 1976)</t>
+  </si>
+  <si>
+    <t>brantard</t>
+  </si>
+  <si>
+    <t>Ouvrier journalier qui transporte les caissettes de raisin pendant les vendanges dans le Canton de Vaud. À Neuchâtel, on dit « brandard », alors qu’en Valais « brentier ».
+La grêle est un ennemi terrible, [...] hachant en 10 minutes toute la récolte mûre d'un village, chassant brantards et vendangeuses et semant la consternation. (É. Gardaz et al., Le Vin vaudois, 1975, p. 78).</t>
+  </si>
+  <si>
+    <t>Brantard (n.m.)</t>
+  </si>
+  <si>
+    <t>Camber (v. tr.)</t>
+  </si>
+  <si>
+    <t>camber</t>
+  </si>
+  <si>
+    <t>Terme familier pour enjamber, passer par-dessus. À Genève, c’est plutôt « gamber » qui est utiliser (et encore, le terme semble être tombé en désuétude). 
+Il [le printemps] me disait : chaud... chaud... quand je suivais un semis de crocus; il me disait : froid... froid... quand je «cambais» une langue de neige sale; mais je savais où il était tapi... (W. Dubois, En poussant nos clédars, 1959, p. 160)</t>
+  </si>
+  <si>
+    <t>Tablard (n.m.)</t>
+  </si>
+  <si>
+    <t>tablard</t>
+  </si>
+  <si>
+    <t>S’écrit aussi « tablar ». Possède plusieurs sens : (1) Rayon, étagère de rangement ; (2) En Valais, terrasse, parcelle de vigne soutenue par un mur. ; (3) (En parlant d'une personne). Taré, dérangé.
+Dans une de ses lettres, Pierre Girard me disait aimer beaucoup les livres de Clarisse Francillon. Et il ajoutait qu'il nous mettait elle et moi sur «le même tablar»! (A. Rivaz, Traces de vie, 1983, p. 269)</t>
   </si>
 </sst>
 </file>
@@ -995,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1409,7 +1552,7 @@
       <c r="C29" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1423,7 +1566,7 @@
       <c r="C30" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1595,6 +1738,163 @@
       <c r="D42" t="s">
         <v>162</v>
       </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C57" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}"/>

--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\03, 21 (Neuchâtel, AGORA)\devine_voir_(mootüs)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workstation\wlks\wordle\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98497F52-98D3-40B3-890C-0F3ABF8EFA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708A2A4-6166-4051-931F-C015C5693CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -744,7 +733,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,13 +746,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -792,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -800,10 +782,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1140,13 +1118,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1191,7 +1169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1205,7 +1183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1233,7 +1211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +1225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1261,7 +1239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1275,7 +1253,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1289,7 +1267,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1303,7 +1281,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1317,7 +1295,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1331,7 +1309,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1345,7 +1323,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1359,7 +1337,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1373,7 +1351,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1387,7 +1365,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1401,7 +1379,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1415,7 +1393,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1429,7 +1407,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1443,7 +1421,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -1457,7 +1435,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -1471,7 +1449,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -1485,7 +1463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -1499,7 +1477,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -1513,7 +1491,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -1527,7 +1505,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -1542,7 +1520,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -1556,7 +1534,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -1570,7 +1548,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -1584,7 +1562,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -1598,7 +1576,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -1612,7 +1590,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -1626,21 +1604,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>131</v>
       </c>
       <c r="B35" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -1655,7 +1633,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>133</v>
       </c>
@@ -1669,7 +1647,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>134</v>
       </c>
@@ -1683,7 +1661,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>135</v>
       </c>
@@ -1697,7 +1675,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -1711,7 +1689,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -1725,7 +1703,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -1739,7 +1717,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>169</v>
       </c>
@@ -1749,11 +1727,11 @@
       <c r="C43" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -1763,11 +1741,11 @@
       <c r="C44" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>171</v>
       </c>
@@ -1777,11 +1755,11 @@
       <c r="C45" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>172</v>
       </c>
@@ -1791,11 +1769,11 @@
       <c r="C46" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>173</v>
       </c>
@@ -1805,11 +1783,11 @@
       <c r="C47" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -1819,11 +1797,11 @@
       <c r="C48" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>175</v>
       </c>
@@ -1833,11 +1811,11 @@
       <c r="C49" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -1847,11 +1825,11 @@
       <c r="C50" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>177</v>
       </c>
@@ -1861,11 +1839,11 @@
       <c r="C51" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>178</v>
       </c>
@@ -1875,11 +1853,11 @@
       <c r="C52" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>179</v>
       </c>
@@ -1889,16 +1867,17 @@
       <c r="C53" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workstation\wlks\wordle\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\03, 21 (Neuchâtel, AGORA)\devine_voir_(mootüs)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708A2A4-6166-4051-931F-C015C5693CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D905BD8-5A69-474B-A424-878B5D5706B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
     <t>release</t>
   </si>
@@ -727,13 +738,153 @@
   <si>
     <t>S’écrit aussi « tablar ». Possède plusieurs sens : (1) Rayon, étagère de rangement ; (2) En Valais, terrasse, parcelle de vigne soutenue par un mur. ; (3) (En parlant d'une personne). Taré, dérangé.
 Dans une de ses lettres, Pierre Girard me disait aimer beaucoup les livres de Clarisse Francillon. Et il ajoutait qu'il nous mettait elle et moi sur «le même tablar»! (A. Rivaz, Traces de vie, 1983, p. 269)</t>
+  </si>
+  <si>
+    <t>day_53</t>
+  </si>
+  <si>
+    <t>day_54</t>
+  </si>
+  <si>
+    <t>day_55</t>
+  </si>
+  <si>
+    <t>day_56</t>
+  </si>
+  <si>
+    <t>day_57</t>
+  </si>
+  <si>
+    <t>day_58</t>
+  </si>
+  <si>
+    <t>day_59</t>
+  </si>
+  <si>
+    <t>day_60</t>
+  </si>
+  <si>
+    <t>day_61</t>
+  </si>
+  <si>
+    <t>day_62</t>
+  </si>
+  <si>
+    <t>crousille</t>
+  </si>
+  <si>
+    <t>Crousille (n.f.)</t>
+  </si>
+  <si>
+    <t>Une « tirelire », tout simplement. Un petit récipient où l’on introduit par une fente des pièces de monnaie, pour le mettre en réserve. Deux variantes bien de chez nous sont attestées : « creusille » et « crusille / crusie » .
+Comme dans toutes les cabanes qui ne sont pas constamment habitées par un gardien, nous dit M. D., leur importance ne justifiant pas un plein emploi, il existe une «crousille» où les alpinistes de passage versent leur dû [...]. (Nouvelliste et Feuille d'Avis du Valais, 25 avril 1977, p. 9)</t>
+  </si>
+  <si>
+    <t>octante</t>
+  </si>
+  <si>
+    <t>Octante (adj. num.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terme totalement disparu en Suisse qui désignait le cardinal « 80 ». On entend souvent dire qu’en français de Belgique et en français de Suisse (et parfois même en français québécois), c’est le terme octante qui serait utilisé à l’oral ou à l’écrit pour désigner 80. Ce préjugé, pourtant largement erroné, reste tenace, alimenté par des personnes n’ayant qu’une idée imprécise de ce que disent réellement les francophones de ces régions. </t>
+  </si>
+  <si>
+    <t>cornet</t>
+  </si>
+  <si>
+    <t>Cornet (n.m)</t>
+  </si>
+  <si>
+    <t>Sac de papier, de plastique ou de jute, pour denrées alimentaires ou autres articles d'usage courant. Se dit aussi de l'emballage d'un seul produit
+« Le cornet de farine est sur la table, puis voici le lait, un bol, la salière, le pot de graisse, la livre de beurre... » (A. Rivaz, Sans alcool, 1961, p. 128)</t>
+  </si>
+  <si>
+    <t>Briser, casser la nuque de quelque chose ou quelqu’un. On peut s’énuquer soi-même aussi.
+Dans les cantons de Berne, du Jura et de Fribourg, on utilise plutôt « nuquer ».</t>
+  </si>
+  <si>
+    <t>enuquer</t>
+  </si>
+  <si>
+    <t>Énuquer (v. trans.)</t>
+  </si>
+  <si>
+    <t>birngue</t>
+  </si>
+  <si>
+    <t>Bringue (n.f.)</t>
+  </si>
+  <si>
+    <t>La bringue est un terme familier pour désigner une chanson ou air trop souvent répétés qui agacent par leur monotonie, un discours ennuyeux ou encore des propos insistants et répétitifs. Plusieurs locution en dérive : « faire la bringue (à qqun) » signifie importuner, ennuyer, harceler quelqu’un ; « être en bringue » signifie être brouiller ; « avoir ses bringues » signifie avoir ses règles.
+« Nous, on s'est mis à chanter aussi, alouette, la claire fontaine, les bringues de service militaire, et aussi quelques cochonneries que les types du coin entonnaient tandis que les bonnes femmes hurlaient de rire. » (J. Chessex, Portrait des Vaudois, 1969, p. 225).</t>
+  </si>
+  <si>
+    <t>Grailler (v. intrans ou trans)</t>
+  </si>
+  <si>
+    <t>grailler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrête-voir de te grailler le nez ! Ce verbe signifie gratter, racler ; fouiller, farfouiller, fureter; remuer. Plein d’emplois s’offrent aux Suisses avec « grailler » ! </t>
+  </si>
+  <si>
+    <t>stempel</t>
+  </si>
+  <si>
+    <t>Stempel (n.m.)</t>
+  </si>
+  <si>
+    <t>S’écrit et se dit aussi « stempf » ou « stempfel ». Timbre de métal ou de caoutchouc qu'on encre sur un tampon encreur et qui sert à marquer, à oblitérer. Par extension, un stempel peut être aussi l’approbation d’une autorité officielle. Il s’agit ici, vous l’aurez deviné, d’un emprunt complet à l’allemand.</t>
+  </si>
+  <si>
+    <t>souper</t>
+  </si>
+  <si>
+    <t>Souper (v. intrans. ou n.m.)</t>
+  </si>
+  <si>
+    <t>Facile celui-là ! Il s’agit de (l’action de prendre) le repas du soir. Il s’agit d’un archaïsme disparu en France (ou presque), mais bien présent en Suisse ! En France, le repas du soir est le « dîner » (qui pour nous, est le repas de midi !)
+« On mangea pour le souper du fromage, du beurre et du miel, Helena distribua les cadeaux, et la soirée dont elle s'était tant réjouie commença. » (C. Bille, Juliette éternelle, 1971, p. 60)</t>
+  </si>
+  <si>
+    <t>lavette</t>
+  </si>
+  <si>
+    <t>Petit carré de tissu éponge servant à la toilette.
+« Je ne quitte pas Corinna. Il y a un moment vers les 19h. où les gardes viennent, refont le lit. J'ai toujours changé la lavette qui lui rafraîchit le front. L'angoisse montait en moi devant ses mains, ses bras qui se glaçaient. » (M. Chappaz, Octobre 79, 1986, p. 106)</t>
+  </si>
+  <si>
+    <t>Lavette (n.f.)</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>day_63</t>
+  </si>
+  <si>
+    <t>crotchon</t>
+  </si>
+  <si>
+    <t>Opération commerciale et souvent publicitaire visant à accroître le volume des ventes, à promouvoir un produit ; « en action » signifie donc « en promotion ».
+« 1 200 000 kg [d'abricots] attendaient preneur dans les frigos, et l'attente ne peut dépasser quelques jours. Des actions spéciales sont envisagées, notamment quelques exportations. » (Le Sillon romand, 6 août 1976, p. 7)</t>
+  </si>
+  <si>
+    <t>Action (n.f.)</t>
+  </si>
+  <si>
+    <t>Crotchon (n.m.)</t>
+  </si>
+  <si>
+    <t>Entame du pain, croûton, quignon. À Genève, « crochon » ; Plus rare dans Vaud, « crotson / crotzon », ou encore « crotion / crottion » aussi dans le Valais. Mais aussi, quignon, trognon, croûtion, cugignon, gousignon, etc. ! Tellement de mots pour simplement l’extrémité du pain ! En Belgique et dans sa France voisine, on parle explicitement du « cul du pain ».
+Renaud Michiels résume ça : « Tout ça pour un pain qui n'a que deux bouts? Ils sont fous ces francophones. ». Merci Renaud.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +897,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -774,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -782,6 +940,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1116,15 +1278,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1155,7 +1317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1169,7 +1331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1183,7 +1345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1211,7 +1373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1225,7 +1387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1239,7 +1401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1253,7 +1415,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1267,7 +1429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1281,7 +1443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1295,7 +1457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1309,7 +1471,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1323,7 +1485,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1337,7 +1499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1351,7 +1513,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1365,7 +1527,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1379,7 +1541,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1393,7 +1555,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1407,7 +1569,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1421,7 +1583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -1435,7 +1597,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -1449,7 +1611,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -1463,7 +1625,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -1477,7 +1639,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -1491,7 +1653,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -1505,7 +1667,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -1520,7 +1682,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -1534,7 +1696,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -1548,7 +1710,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -1562,7 +1724,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -1576,7 +1738,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -1590,7 +1752,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -1604,21 +1766,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>131</v>
       </c>
       <c r="B35" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -1633,7 +1795,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>133</v>
       </c>
@@ -1647,7 +1809,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>134</v>
       </c>
@@ -1661,7 +1823,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>135</v>
       </c>
@@ -1675,7 +1837,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -1689,7 +1851,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -1703,7 +1865,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -1717,7 +1879,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>169</v>
       </c>
@@ -1731,7 +1893,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -1745,7 +1907,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>171</v>
       </c>
@@ -1759,7 +1921,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>172</v>
       </c>
@@ -1773,7 +1935,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>173</v>
       </c>
@@ -1787,7 +1949,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -1801,7 +1963,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>175</v>
       </c>
@@ -1815,7 +1977,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -1829,7 +1991,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>177</v>
       </c>
@@ -1843,7 +2005,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>178</v>
       </c>
@@ -1857,7 +2019,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>179</v>
       </c>
@@ -1871,13 +2033,163 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>251</v>
+      </c>
+      <c r="B64" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\03, 21 (Neuchâtel, AGORA)\devine_voir_(mootüs)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\AGORA_AE\MOOTUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D905BD8-5A69-474B-A424-878B5D5706B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9CCF91-DC24-4C13-B54D-EE60353FAB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
     <t>release</t>
   </si>
@@ -878,6 +878,136 @@
   <si>
     <t>Entame du pain, croûton, quignon. À Genève, « crochon » ; Plus rare dans Vaud, « crotson / crotzon », ou encore « crotion / crottion » aussi dans le Valais. Mais aussi, quignon, trognon, croûtion, cugignon, gousignon, etc. ! Tellement de mots pour simplement l’extrémité du pain ! En Belgique et dans sa France voisine, on parle explicitement du « cul du pain ».
 Renaud Michiels résume ça : « Tout ça pour un pain qui n'a que deux bouts? Ils sont fous ces francophones. ». Merci Renaud.</t>
+  </si>
+  <si>
+    <t>day_64</t>
+  </si>
+  <si>
+    <t>day_65</t>
+  </si>
+  <si>
+    <t>day_66</t>
+  </si>
+  <si>
+    <t>day_67</t>
+  </si>
+  <si>
+    <t>day_68</t>
+  </si>
+  <si>
+    <t>day_69</t>
+  </si>
+  <si>
+    <t>day_70</t>
+  </si>
+  <si>
+    <t>day_71</t>
+  </si>
+  <si>
+    <t>day_72</t>
+  </si>
+  <si>
+    <t>day_73</t>
+  </si>
+  <si>
+    <t>brucelles</t>
+  </si>
+  <si>
+    <t>Brucelles (n.f. pl.)</t>
+  </si>
+  <si>
+    <t>La fameuse pince à épiler. Se dit partout, sauf en Valais ! En français de référence, le mot brucelles est un terme plutôt technique lié a l’horlogerie (« pince fine à ressort servant à saisir de petits objets »). L'importance de l'industrie horlogère en Suisse romande est peut-être responsable de ce glissement de sens et de cette extension d'emploi. 
+« Tiens, il me reste des poils aux jambes. Evidemment. Jamais je ne réussis à faire ça proprement. Allez, courage : et hop! un coup de brucelles. » (Femina, 1er septembre 1976, p. 54)</t>
+  </si>
+  <si>
+    <t>hydrant</t>
+  </si>
+  <si>
+    <t>Hydrant (n.m)</t>
+  </si>
+  <si>
+    <t>Aussi « hydrante » (n.f.). Il s’agit de la bouche d’incendie, la prise d’eau utilisée principalement par les pompiers lors d’incendies. Il s’agit d’un emprunt (encore et toujours) à l’allemand.
+« Un camion-citerne, stationné au haut d'une pente, s'est soudain mis en branle, en dépit de la présence de cales sous ses roues. Le lourd véhicule a fauché une hydrante avant de s'arrêter, en équilibre instable, au bord du chemin. » (La Tribune de Lausanne, 12 mai 1971, p. 9.)</t>
+  </si>
+  <si>
+    <t>gribiche</t>
+  </si>
+  <si>
+    <t>Gribiche (n. f.)</t>
+  </si>
+  <si>
+    <t>Femme acariâtre, méchante; chipie, pimbêche. Le terme est en train de tomber en désuétude, mais même avant cela, il était inconnu à Fribourg, dans le Jura et le Jura Bernois.
+« Victorine Magnenat, une fille de chez nous, servit un certain temps chez cette gribiche. » (A. Belperroud, Les toutes bonnes du syndic, 1973 p. 82).</t>
+  </si>
+  <si>
+    <t>debrouille</t>
+  </si>
+  <si>
+    <t>Débrouille (adj.)</t>
+  </si>
+  <si>
+    <t>Quelqu’un de débrouillard. Très rare dans la langue écrite, le terme est plus fréquent à l'oral.
+« Elle aime le côté débrouille de cette plante [l'orchidée] qui se pose quelque part et vit de l'air du temps. » (Construire, 9 avril 1997, p. 13).</t>
+  </si>
+  <si>
+    <t>Amender (v.tr.)</t>
+  </si>
+  <si>
+    <t>amender</t>
+  </si>
+  <si>
+    <t>Recevoir une prune ! Une amende quoi. La plus connue, 40 francs pour stationnement illicite … 
+« [Les cyclistes de Berne ne s'arrêtent pas aux feux rouges] Constat dressé hier par la police municipale qui en une heure a vu passer soixante-sept cyclistes devant son poste de contrôle. Et bien, trente-cinq d'entre eux ne se sont même pas arrêtés au feu, ils ont bien sûr été amendés. Il y en a même un qui s'est fait pincer en train de téléphoner, figurez-vous! » (RSR, La Première, émission Journal du matin, 15 janvier 2007)</t>
+  </si>
+  <si>
+    <t>Raclette (n.f.)</t>
+  </si>
+  <si>
+    <t>raclette</t>
+  </si>
+  <si>
+    <t>Mets d'origine valaisanne, traditionnellement préparé en présentant à la flamme d'un feu de bois (ou, plus récemment, au rayonnement d'un gril électrique) un gros morceau de fromage du pays dont on racle la partie ramollie et rôtie (voir religieuse) au fur et à mesure qu'elle se met à fondre.
+« Que peut-on, je vous le demande, trouver de plus gastronomique, de plus parfait, de plus délicieux, de plus idéal comme repas qu'une raclette prise au milieu d'un de ces hauts pâturages, face aux Alpes ? Le feu de bois qui crépite, la bouteille de fendant posée au frais dans le ruisseau glacé, le soleil et le petit vent de l'alpe, et pour seul fond sonore les sonnailles des troupeaux et les cris aigus des corneilles, que pourrait rêver de mieux le vrai gourmet, amoureux des mets simples et authentiques! » (J. Montandon, Le Valais à table, 1975, p. 26)</t>
+  </si>
+  <si>
+    <t>lolette</t>
+  </si>
+  <si>
+    <t>Lolette (n.f.)</t>
+  </si>
+  <si>
+    <t>Petite tétine que l'on donne à un enfant pour le calmer ou l'empêcher de sucer son pouce. Dans le Jura, on tête le « nouki » ! À Fribourg et en Valais, ce serait plutôt sucette.
+« Bien entendu, il y avait des indices. Par exemple, il adorait téter sa petite lolette, eh bien il m'arrivait de la lui retirer brusquement de la bouche et de la poser assez loin pour que sa main tendue ne puisse juste pas l'atteindre. Il la voyait, il étirait vers elle son bras le plus possible, mais il ne pouvait la toucher. » (A.-L. Grobéty, La Fiancée d'hiver, 1984, p. 426)</t>
+  </si>
+  <si>
+    <t>Gicler (v.)</t>
+  </si>
+  <si>
+    <t>gicler</t>
+  </si>
+  <si>
+    <t>Le verbe gicler désigne plusieurs actions de projection : éclabousser, jaillir ou fuser soudainement, notamment pour des liquides. Il peut aussi signifier un départ rapide ou une disparition brusque. Enfin, dans un sens figuré, il évoque une augmentation soudaine, notamment financière.
+« [...] les pompiers ont fait monter l'eau du torrent avec des tuyaux mais i'se massacraient dans les rochers. Ils ont dû venir avec des avions qui ont giclé... » (C. Bille, Forêts obscures, 1989, p. 99)</t>
+  </si>
+  <si>
+    <t>charmu</t>
+  </si>
+  <si>
+    <t>Charmu (n.m.)</t>
+  </si>
+  <si>
+    <t>Un mot typique Vaudois, plus précisément de la région du Lavaux ! Un charmu est une terrasse de vigne comprise entre deux murs de soutènement.
+« Chaussée de bons souliers, Claude gravit les marches bossues, longea des murs tachés, raversa des coulisses, s'accrocha aux échalas, se hissa, avec peine, de «charmu» en «charmu». Dieu que ce pays était raide! » (J. Fonjallaz, Le Chemin des vignes, 1973, p. 130.)</t>
+  </si>
+  <si>
+    <t>grimpion</t>
+  </si>
+  <si>
+    <t>Grimpion (n.m.)</t>
+  </si>
+  <si>
+    <t>« Grimpionne » au féminin. Personne ambitieuse, arriviste (dans la vie sociale, dans l'administration, dans l'armée, etc.). Mais aussi, dans le Jura er Jura bernois, un « grimpion » est un petit enfant qui grimpe partout.
+« Il arrive que leurs administrés les «dégomment». Les pauvres en font une maladie. Puis ils s'empressent de gravir ailleurs l'échelle des honneurs. Ces «grimpions» ont une qualité. C'est d'être toujours prêts à faire avec une satisfaction secrète la corvée qu'un autre refuse. » (G. Glasson, La Vie d'un crayon de braise, 1993, p. 17)</t>
   </si>
 </sst>
 </file>
@@ -1278,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2043,7 +2173,7 @@
       <c r="C54" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2057,7 +2187,7 @@
       <c r="C55" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2071,7 +2201,7 @@
       <c r="C56" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2082,10 +2212,10 @@
       <c r="B57" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>234</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2099,7 +2229,7 @@
       <c r="C58" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2113,7 +2243,7 @@
       <c r="C59" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2127,7 +2257,7 @@
       <c r="C60" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2155,7 +2285,7 @@
       <c r="C62" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2169,7 +2299,7 @@
       <c r="C63" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2183,8 +2313,148 @@
       <c r="C64" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>257</v>
+      </c>
+      <c r="B65" t="s">
+        <v>267</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>258</v>
+      </c>
+      <c r="B66" t="s">
+        <v>270</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>259</v>
+      </c>
+      <c r="B67" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>260</v>
+      </c>
+      <c r="B68" t="s">
+        <v>276</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>261</v>
+      </c>
+      <c r="B69" t="s">
+        <v>280</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" t="s">
+        <v>283</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71" t="s">
+        <v>285</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" t="s">
+        <v>289</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>265</v>
+      </c>
+      <c r="B73" t="s">
+        <v>291</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>266</v>
+      </c>
+      <c r="B74" t="s">
+        <v>294</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\AGORA_AE\MOOTUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9CCF91-DC24-4C13-B54D-EE60353FAB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A63198-71D3-484D-8DFC-C4D703866181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
   <si>
     <t>release</t>
   </si>
@@ -809,9 +809,6 @@
     <t>Énuquer (v. trans.)</t>
   </si>
   <si>
-    <t>birngue</t>
-  </si>
-  <si>
     <t>Bringue (n.f.)</t>
   </si>
   <si>
@@ -1008,6 +1005,204 @@
   <si>
     <t>« Grimpionne » au féminin. Personne ambitieuse, arriviste (dans la vie sociale, dans l'administration, dans l'armée, etc.). Mais aussi, dans le Jura er Jura bernois, un « grimpion » est un petit enfant qui grimpe partout.
 « Il arrive que leurs administrés les «dégomment». Les pauvres en font une maladie. Puis ils s'empressent de gravir ailleurs l'échelle des honneurs. Ces «grimpions» ont une qualité. C'est d'être toujours prêts à faire avec une satisfaction secrète la corvée qu'un autre refuse. » (G. Glasson, La Vie d'un crayon de braise, 1993, p. 17)</t>
+  </si>
+  <si>
+    <t>bringue</t>
+  </si>
+  <si>
+    <t>day_74</t>
+  </si>
+  <si>
+    <t>day_75</t>
+  </si>
+  <si>
+    <t>day_76</t>
+  </si>
+  <si>
+    <t>day_77</t>
+  </si>
+  <si>
+    <t>day_78</t>
+  </si>
+  <si>
+    <t>day_79</t>
+  </si>
+  <si>
+    <t>day_80</t>
+  </si>
+  <si>
+    <t>day_81</t>
+  </si>
+  <si>
+    <t>day_82</t>
+  </si>
+  <si>
+    <t>clignoteur</t>
+  </si>
+  <si>
+    <t>Clignoteur (n.m)</t>
+  </si>
+  <si>
+    <t>Dispositif qui clignote ou qui s’allume de manière intermittente permettant à un véhicule d’indiquer la direction qu’il va prendre. C’est un mot utilisé du côté de l’arc jurassien. Dans les cantons de Vaud et du Valais vous entendrez plutôt le mot « signofile ».
+ « Par courtoisie, le chauffeur de véhicule utilitaire actionnera désormais son clignoteur droit pour informer la voiture qui attend derrière lui que la route est libre. » (Le Franc-Montagnard, 10 juillet 1970, Volume 71, Numéro 10217)</t>
+  </si>
+  <si>
+    <t>Doucette (n.f)</t>
+  </si>
+  <si>
+    <t>doucette</t>
+  </si>
+  <si>
+    <t>Plante potagère herbacée, cultivée de préférence pendant la saison froide, dont les petites feuilles, rondes et vert foncé, se mangent en salade. En Valais et dans le canton de Vaud l’équivalent « rampon » est utilisé alors que Genève utilise plutôt « mâche ». 
+« Mais l'entrée d'une vieille servante fit diversion. Théodore s'élança vers elle en s'exclamant : – Pour ce soir, vous nous donnerez des frites allumettes, trois fricandeaux et de la doucette! » (C. Bille, La Demoiselle sauvage, 1974, p. 127.)</t>
+  </si>
+  <si>
+    <t>atriau</t>
+  </si>
+  <si>
+    <t>Atriau (n.m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viande hachée, essentiellement de foie de porc, enveloppée d'un morceau de crépine, assaisonnée de persil et de fines herbes, se présentant sous la forme d'une boulette aplatie, et que l'on fait frire au beurre dans la poêle. 
+« L'hiver on frira les atriaux dans leur coiffe transparente qui saute à la chaleur du fourneau. » (J. Chessex, Portrait des Vaudois 1972, p. 109.) </t>
+  </si>
+  <si>
+    <t>bricelet</t>
+  </si>
+  <si>
+    <t>Petite gaufre très mince, croustillante et friable, sucrée ou salée, plate ou roulée en flûte.
+« Et c'est là qu'un passant plus curieux que les autres découvrit, par un matin glacé de février, le grand Wust recroquevillé sur la banquette, sec et friable comme un bricelet. » (S. Chevallier, Ces Vaudois !, 1996 p.90.)</t>
+  </si>
+  <si>
+    <t>Bricelet (n.m)</t>
+  </si>
+  <si>
+    <t>auditoire</t>
+  </si>
+  <si>
+    <t>Auditoire (n.m)</t>
+  </si>
+  <si>
+    <t>Grande salle de cours ou de conférences, en particulier à l'université, le plus souvent aménagée en gradins.
+« Jeudi dernier, notre ministre des Finances était l'hôte du Cercle libéral genevois qui, pour la circonstance, avait réussi à presque remplir le grand auditoire d'Uni II. » (L'Ordre Professionnel, 24 mars 1977, p.1.)</t>
+  </si>
+  <si>
+    <t>bircher</t>
+  </si>
+  <si>
+    <t>clédar</t>
+  </si>
+  <si>
+    <t>Bircher (müesli) (n.m)</t>
+  </si>
+  <si>
+    <t>Mets composé de céréales, de fruits (frais et secs), de noix, d'amandes ou de noisettes moulues, de yogourt, lait ou crème, réputé pour ses qualités diététiques, et que l'on consomme le plus souvent au déjeuner ou comme goûter. Cette préparation peut parfois s’acheter déjà toute faite. 
+« A déjeuner, porridge, corn flakes et bircher remplaceront, aussi souvent qu'on le voudra, le pain. » (Le Nouvel Illustré, 10 novembre 1976, p. 80.)</t>
+  </si>
+  <si>
+    <t>Porte à claire-voie, faite de lattes ou de perches, et barrant l'entrée d'un pâturage, d'un champ, d'un verger, d'un jardin ou d'une cour. (parfois écrit « clédard »)
+« En arrivant vers la pâture, le «clédar» était fermé; à tâtons, la main a cherché le crochet qu'elle connaît bien, mais la main s'est éraflée sur une pointe aiguë; alors l'homme a tempêté contre l'inventeur du fil de fer barbelé [...]. » (W. Dubois, En poussant nos clédars, 1959, p. 102.)</t>
+  </si>
+  <si>
+    <t>Clédar (n.m)</t>
+  </si>
+  <si>
+    <t>Foehner (v.tr.)</t>
+  </si>
+  <si>
+    <t>Sécher (les cheveux) au sèche-cheveux électrique, plus communément appelé « Foehn » en Suisse.
+« […] personne n’a pris le temps de se « foehner » à la sortie de la piscine. » (La Gruyère, 12 octobre 1989, p.1.)</t>
+  </si>
+  <si>
+    <t>Galetas (n.m)</t>
+  </si>
+  <si>
+    <t>Local servant de débarras sous les combles; grenier.
+« La veille, ceux qui avaient été désignés [...] avaient déniché dans le galetas de vieux habits démodés, serrés dans quelque malle recouverte de toiles d'araignée. » (A. Layaz, Malvallée, 1976,  p. 158-159.)</t>
+  </si>
+  <si>
+    <t>day_83</t>
+  </si>
+  <si>
+    <t>day_84</t>
+  </si>
+  <si>
+    <t>day_85</t>
+  </si>
+  <si>
+    <t>day_86</t>
+  </si>
+  <si>
+    <t>day_87</t>
+  </si>
+  <si>
+    <t>day_88</t>
+  </si>
+  <si>
+    <t>Mitaine (n.f)</t>
+  </si>
+  <si>
+    <t>Pièce d'habillement en laine, cuir ou tissu imperméable couvrant la main, sans séparations pour les doigts à l'exception du pouce, que l'on porte à la saison froide. Également utilisé au Québec. 
+« [...] je suis votre fiancée d'hiver; celle des cheveux bonnets de laine, celle des mitaines. » (A.-L. Grobéty, La Fiancée d'hiver, 1984, p. 323.)</t>
+  </si>
+  <si>
+    <t>foehner</t>
+  </si>
+  <si>
+    <t>galetas</t>
+  </si>
+  <si>
+    <t>mitaine</t>
+  </si>
+  <si>
+    <t>merveilles</t>
+  </si>
+  <si>
+    <t>Pâtisserie à base d'œufs, de farine, de beurre et de crème, se présentant le plus souvent sous la forme de disques très minces, boursouflés et très friables, frits dans l'huile et saupoudrés de sucre glace. Dans le canton de Genève, on les trouve plutôt sous forme de bandes au lieu de disques.
+« J'ai le souvenir de deux dames en tablier blanc, d'une table chargée de taillés, de meringues, de merveilles, de saucissons et autres délices, et par-dessous, montrant ses crocs et grondant d'importance, un chien-loup tout noir pas très rassurant. » ( L. Dutoit ,Le Courage de la terre. 1950-2000, une paysanne raconte, 2003, p. 17.)</t>
+  </si>
+  <si>
+    <t>Merveilles (n.f)</t>
+  </si>
+  <si>
+    <t>Raisinet (n.m)</t>
+  </si>
+  <si>
+    <t>raisinet</t>
+  </si>
+  <si>
+    <t>Groseille à grappe de couleur rouge, rose ou blanche. En Valais vous entendrez plutôt « groseille » alors que du côté du jura certains diront même « raisinelet ».
+« C'est fou ce que ces raisinets peuvent être acides dans la grande chaleur de dix heures. On goûte, tout de suite on fait la grimace, la pulpe du fruit écrasé entre les dents nous fait frissonner [...]. » ( J. Chessex, Où vont mourir les oiseaux, 1980, p. 23.)</t>
+  </si>
+  <si>
+    <t>bletzes</t>
+  </si>
+  <si>
+    <t>Blètze (n.m)</t>
+  </si>
+  <si>
+    <t>Morceau de tissu, de cuir ou de caoutchouc pour rapiécer; sparadrap, pansement. Parfois également utilisé pour désigner les petites pièces pour couvrir les numéros au loto. Il existe plusieurs variantes, comme « plètze » ou encore « biètze ». 
+« […] qu'est-ce que nous voulons ? Recréer le passé, en mettant un «blètze» sur la déchirure, ou au contraire inventer une Eglise nouvelle, une paroisse nouvelle, une vie nouvelle, une manière nouvelle de vivre l'Evangile. » (L'impartial, 11 juillet 2003, p.25.)</t>
+  </si>
+  <si>
+    <t>Moque (n.f)</t>
+  </si>
+  <si>
+    <t>Humeur visqueuse sécrétée par les membranes nasales, morve. 
+« La moque lui pend au nez comme de la poix. » (M. Chappaz, Le Match Valais-Judée, 1968, p. 36.)</t>
+  </si>
+  <si>
+    <t>imperdable</t>
+  </si>
+  <si>
+    <t>Imperdable (n.f)</t>
+  </si>
+  <si>
+    <t>Épingle de sûreté, épingle de nourrice. Surtout utilisé dans le canton du Vaud ainsi que dans le canton de Fribourg, il n’est que très peu, voir pas utilisé dans le Jura. 
+« Votre jarretelle a sauté ? Vite, une imperdable! » (Le nouvelliste, 23 juin 1956, volume 53, Numéro 145)</t>
+  </si>
+  <si>
+    <t>moques</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1073,7 +1268,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1408,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2224,13 +2418,13 @@
         <v>217</v>
       </c>
       <c r="B58" t="s">
+        <v>296</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" t="s">
         <v>236</v>
-      </c>
-      <c r="D58" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -2238,13 +2432,13 @@
         <v>218</v>
       </c>
       <c r="B59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D59" t="s">
         <v>239</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D59" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -2252,13 +2446,13 @@
         <v>219</v>
       </c>
       <c r="B60" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" t="s">
         <v>242</v>
-      </c>
-      <c r="D60" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -2266,13 +2460,13 @@
         <v>220</v>
       </c>
       <c r="B61" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -2280,13 +2474,13 @@
         <v>221</v>
       </c>
       <c r="B62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" t="s">
         <v>247</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D62" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -2294,167 +2488,377 @@
         <v>222</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>250</v>
+      </c>
+      <c r="B64" t="s">
         <v>251</v>
       </c>
-      <c r="B64" t="s">
-        <v>252</v>
-      </c>
       <c r="C64" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D64" t="s">
         <v>255</v>
-      </c>
-      <c r="D64" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B65" t="s">
+        <v>266</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" t="s">
         <v>268</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B66" t="s">
+        <v>269</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" t="s">
         <v>271</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B67" t="s">
+        <v>272</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" t="s">
         <v>274</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B68" t="s">
+        <v>275</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" t="s">
         <v>277</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B69" t="s">
+        <v>279</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D69" t="s">
         <v>280</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B70" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D70" t="s">
         <v>283</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B71" t="s">
+        <v>284</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" t="s">
         <v>286</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B72" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D72" t="s">
         <v>289</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B73" t="s">
+        <v>290</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" t="s">
         <v>292</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B74" t="s">
+        <v>293</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" t="s">
         <v>295</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>296</v>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>297</v>
+      </c>
+      <c r="B75" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D75" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>298</v>
+      </c>
+      <c r="B76" t="s">
+        <v>310</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>299</v>
+      </c>
+      <c r="B77" t="s">
+        <v>312</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D77" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>300</v>
+      </c>
+      <c r="B78" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D78" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>301</v>
+      </c>
+      <c r="B79" t="s">
+        <v>318</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D79" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>302</v>
+      </c>
+      <c r="B80" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D80" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>303</v>
+      </c>
+      <c r="B81" t="s">
+        <v>322</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D81" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" t="s">
+        <v>339</v>
+      </c>
+      <c r="C82" t="s">
+        <v>327</v>
+      </c>
+      <c r="D82" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>305</v>
+      </c>
+      <c r="B83" t="s">
+        <v>340</v>
+      </c>
+      <c r="C83" t="s">
+        <v>329</v>
+      </c>
+      <c r="D83" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>331</v>
+      </c>
+      <c r="B84" t="s">
+        <v>341</v>
+      </c>
+      <c r="C84" t="s">
+        <v>337</v>
+      </c>
+      <c r="D84" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>332</v>
+      </c>
+      <c r="B85" t="s">
+        <v>342</v>
+      </c>
+      <c r="C85" t="s">
+        <v>344</v>
+      </c>
+      <c r="D85" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>333</v>
+      </c>
+      <c r="B86" t="s">
+        <v>346</v>
+      </c>
+      <c r="C86" t="s">
+        <v>345</v>
+      </c>
+      <c r="D86" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>334</v>
+      </c>
+      <c r="B87" t="s">
+        <v>348</v>
+      </c>
+      <c r="C87" t="s">
+        <v>349</v>
+      </c>
+      <c r="D87" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>335</v>
+      </c>
+      <c r="B88" t="s">
+        <v>356</v>
+      </c>
+      <c r="C88" t="s">
+        <v>351</v>
+      </c>
+      <c r="D88" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>336</v>
+      </c>
+      <c r="B89" t="s">
+        <v>353</v>
+      </c>
+      <c r="C89" t="s">
+        <v>354</v>
+      </c>
+      <c r="D89" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\AGORA_AE\MOOTUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A63198-71D3-484D-8DFC-C4D703866181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1284259-0943-4FEC-A975-974FCE9AAB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="425">
   <si>
     <t>release</t>
   </si>
@@ -1203,6 +1203,224 @@
   </si>
   <si>
     <t>moques</t>
+  </si>
+  <si>
+    <t>day_89</t>
+  </si>
+  <si>
+    <t>camisole</t>
+  </si>
+  <si>
+    <t>Camisole (n.f.)</t>
+  </si>
+  <si>
+    <t>Il fait froid, n’oublie pas de mettre une camisole ! Ce mot désigne un sous-vêtement d'homme, de femme ou d'enfant, couvrant le torse, le plus souvent moulant, sans manches et à encolure très ouverte. Également utilisé au Québec et parfois en Belgique.
+« Usée, la camisole se recroqueville. Découvrant ma nudité. » (Y. Velan, Je, 1959, p.242.)</t>
+  </si>
+  <si>
+    <t>day_90</t>
+  </si>
+  <si>
+    <t>rampon</t>
+  </si>
+  <si>
+    <t>Rampon (n.m.)</t>
+  </si>
+  <si>
+    <t>Plante potagère herbacée, cultivée de préférence pendant la saison froide, dont les petites feuilles, rondes et vert foncé, se mangent en salade. Dans le canton de Genève, vous mangerez plutôt de la « mâche », tandis que du côté du Jura, ce sera de la doucette !
+« Au moment de servir, ajoutez le rampon à la sauce et parsemez joliment de cerneaux de noix. » (M. Vidoudez, J. Grangier, À la mode de chez nous, 1976, p. 60.)</t>
+  </si>
+  <si>
+    <t>day_91</t>
+  </si>
+  <si>
+    <t>planton</t>
+  </si>
+  <si>
+    <t>Planton (n.m.)</t>
+  </si>
+  <si>
+    <t>Jeune plant (de fleurs d'ornement, de plantes potagères, d'arbustes fruitiers) destiné à être repiqué. 
+« A la campagne, on voit tous les jours la semence devenir planton, et le planton plante. Il y a un roulement, et cela demande du temps. On n'a jamais vu de la graine de salade devenir salade toute seule, dans son cornet. Il faut la terre et le temps. » (S. Chevallier, Le Silence de la terre, 1961, p. 186.)</t>
+  </si>
+  <si>
+    <t>day_92</t>
+  </si>
+  <si>
+    <t>day_93</t>
+  </si>
+  <si>
+    <t>day_94</t>
+  </si>
+  <si>
+    <t>day_95</t>
+  </si>
+  <si>
+    <t>day_96</t>
+  </si>
+  <si>
+    <t>day_97</t>
+  </si>
+  <si>
+    <t>day_98</t>
+  </si>
+  <si>
+    <t>day_99</t>
+  </si>
+  <si>
+    <t>day_100</t>
+  </si>
+  <si>
+    <t>day_101</t>
+  </si>
+  <si>
+    <t>day_102</t>
+  </si>
+  <si>
+    <t>day_103</t>
+  </si>
+  <si>
+    <t>bisses</t>
+  </si>
+  <si>
+    <t>Bisse (n.m.)</t>
+  </si>
+  <si>
+    <t>Si on pense peut-être d’abord au sentier fréquenté par les amateurs de promenade en montagne, son sens premier désigne un canal d'irrigation, creusé dans la terre et le roc ou fait de planches de bois soutenues par des poutres fixées au roc à flanc de montagne, servant à amener l'eau de la fonte des glaciers dans les vallées et à la distribuer sur les différentes surfaces cultivées.
+« La terre, assoiffée de sa soif séculaire sur son territoire de soleil, appelle l'eau des bisses. Cet appel est entendu là-haut; la neige des névés, des glaciers, se saigne pour la vigne. » (Follonier et al., Vins du Valais, 1977, p. 94)</t>
+  </si>
+  <si>
+    <t>piorne</t>
+  </si>
+  <si>
+    <t>Piorne (adj., n.m.)</t>
+  </si>
+  <si>
+    <t>Terme familier pour parler d’une personne geignarde, pleurnicheuse, qui piorne sans arrêt.
+« [...] elle a coupé son fromage, lançant les couennes au chien attentif; elle lui disait : tiens vieille «piorne», et la bête semblait remercier de ses bons yeux soumis. » (W. Dubois, En poussant nos clédars, 1959, p. 35)</t>
+  </si>
+  <si>
+    <t>tracer</t>
+  </si>
+  <si>
+    <t>Tracer (v. intr.)</t>
+  </si>
+  <si>
+    <t>Courir ! Avec empressement, bien sûr. Aussi, dans un autre sens, rayer, biffer, raturer quelque chose d’écrit.
+« Nous faisions bien une bonne dizaine de kilomètres dans le Comptoir même, où l'on traçait [en ital. dans le texte] dans tous les coins, ne voulant rien perdre et tout voir. » (A. Itten, R. Bastian, En çà... en là!, 1975, p. 208)</t>
+  </si>
+  <si>
+    <t>gringe</t>
+  </si>
+  <si>
+    <t>Gringe (adj.)</t>
+  </si>
+  <si>
+    <t>De mauvaise humeur. Si « gringe » domine largement les cantons de Vaud, Valais, Genève et Neuchâtel, c’est « grinche » qui est utilisé à Berne et dans le Jura.
+« Restaurateurs grinches ? Le président de l'Office du tourisme tessinois et administrateur délégué de M. propose de réintroduire le pourboire. » (Construire, 14 août 1996, p. 3).</t>
+  </si>
+  <si>
+    <t>agender</t>
+  </si>
+  <si>
+    <t>Agender (v. tr.)</t>
+  </si>
+  <si>
+    <t>Prenez vos stylos, et agendez ! Helvétisme insoupçonné, le terme est clair : noter dans son agenda, dans son calendrier personnel.
+« Mieux connaître le vignoble. Trois journées à agender. Pour la première fois depuis bientôt vingt-cinq ans, les vignerons-encaveurs de la Riviera vont organiser des journées de rencontres et de dégustations, au début du mois de juin, à La Tour-de-Peilz. » (Vevey Riviera, 7 avril 1986).</t>
+  </si>
+  <si>
+    <t>duvets</t>
+  </si>
+  <si>
+    <t>Couette, grand édredon garni de duvet, de plume ou de matières synthétiques analogues, utilisé en guise de drap et de couverture.
+« Elle cale un peu mieux la tête sur l'oreiller, replie légèrement les genoux; le duvet se relève; une colline grise s'arrondit; Mène a joint les mains sur la poitrine. Elle semble prier. » (M. Zermatten, Le Bouclier d'or, 1961, p. 49).</t>
+  </si>
+  <si>
+    <t>Duvet (n.m.)</t>
+  </si>
+  <si>
+    <t>nonante</t>
+  </si>
+  <si>
+    <t>Nonante (adj. numéral, card. inv.)</t>
+  </si>
+  <si>
+    <t>Souvenez-vous de vos livrets : neuf fois dix ? Quatre-vingt-dix ! Euh… Non, nonante ! C’est tellement plus logique.</t>
+  </si>
+  <si>
+    <t>Fricasse (n.f.)</t>
+  </si>
+  <si>
+    <t>fricasse</t>
+  </si>
+  <si>
+    <t>Grand froid ! Comme aujourd’hui (ou pas). Et donc, « fricasser », verbe dérivé qui signifie « bruler », aussi bien par le froid que par le chaud !
+« [...] il y avait des bandes molletières ou une belle cape de laine grise qui se tranformait en cache-nez lors des grandes fricasses; c'était bien, ces capes... » (W. Dubois, En poussant nos clédars, 1959, p. 125)</t>
+  </si>
+  <si>
+    <t>cruche</t>
+  </si>
+  <si>
+    <t>Récipient étanche, autrefois en grès ou en métal, de nos jours en caoutchouc, que l'on remplit d'eau bouillante pour chauffer un lit. Une bouillotte quoi.
+« Tu seras mieux dans ton lit, avec une bonne cruche. » (A. Belperroud, Les toutes bonnes du syndic, 1973, p. 37)</t>
+  </si>
+  <si>
+    <t>Cruche (n. f.)</t>
+  </si>
+  <si>
+    <t>fanfaron</t>
+  </si>
+  <si>
+    <t>Fanfaron (n.m.)</t>
+  </si>
+  <si>
+    <t>Un fanfaron, c’est un membre d’une fanfare. Fallait pas chercher bien loin. 
+« Oh les harmonies, les instrums [sic], les uniformes burlesques des fanfarons, les oriflammes, les demoiselles d'honneur, les têtes hautes, l'ardeur des gaillards à souffler dans leurs tubas! » (J. Chessex, Portrait des Vaudois, 1969, p. 169)</t>
+  </si>
+  <si>
+    <t>Étours (n.m. pl.)</t>
+  </si>
+  <si>
+    <t>Étourdissement; vertige; malaise ; ‘avoir’ ou ‘donner’ les étours. Le terme est principalement utilisé et connu dans le Jura vaudois et dans le canton de Neuchâtel (sporadiquement aussi dans le Jura et Jura bernois)</t>
+  </si>
+  <si>
+    <t>etours</t>
+  </si>
+  <si>
+    <t>Chablon (n.m)</t>
+  </si>
+  <si>
+    <t>chablon</t>
+  </si>
+  <si>
+    <t>Rappelez-vous des bricolages à l’école : Un chablon est une plaque de métal ou de carton dans laquelle est découpée une lettre ou un ornement que l'on reproduit sur une surface donnée en appliquant dans les parties en creux une substance colorante. 
+« A force de souffler dessus comme sur des pelotes de poussière, quelques souvenirs finissent par remuer, recomposés, le jus des framboises colorant mes paumes, la cadence du morbier, son pas à pas pépère de balancier auquel j'aurais volontiers donné un coup de pied pour qu'il se dépêche, les chablons de violon pendus le long du mur... » (A.-L. Grobéty, La corde de mi, 2006, p. 469)</t>
+  </si>
+  <si>
+    <t>day_104</t>
+  </si>
+  <si>
+    <t>day_105</t>
+  </si>
+  <si>
+    <t>placet</t>
+  </si>
+  <si>
+    <t>Terme propre aux cantons de Genève et de Vaud : il désigne la partie de la chaise où l'on s'assied.</t>
+  </si>
+  <si>
+    <t>Placet (n.m.)</t>
+  </si>
+  <si>
+    <t>schmolitz</t>
+  </si>
+  <si>
+    <t>Schmolitz (n.m.)</t>
+  </si>
+  <si>
+    <t>« Faire schmolitz » veut dire « passer du vouvoiement au tutoiement ». Le rituel, dans sa forme la plus traditionnelle, consiste à offrir le tutoiement en croisant des verres, en faisant cul sec. S’écrit aussi ‘schmollitz’ ou ‘schmollis’.
+« On vient à la recherche de l'oncle Auguste : «Connais pas, qu'il a fait, mais ça n'a pas d'importance. On va examiner le cas. On est organisé pour! Ah! Vous êtes suisses! Beau pays! Buvons un pernod, en attendant!» On en a bu dix. On a fait «schmolitz»! On a chanté [...]. » (J.-P. Moulin, L'Humour des Suisses, 1975, p. 52).</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1268,6 +1486,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1602,10 +1821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2754,13 +2973,13 @@
         <v>304</v>
       </c>
       <c r="B82" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C82" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D82" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -2768,13 +2987,13 @@
         <v>305</v>
       </c>
       <c r="B83" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C83" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D83" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -2782,13 +3001,13 @@
         <v>331</v>
       </c>
       <c r="B84" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C84" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D84" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -2796,13 +3015,13 @@
         <v>332</v>
       </c>
       <c r="B85" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C85" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D85" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -2810,13 +3029,13 @@
         <v>333</v>
       </c>
       <c r="B86" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C86" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D86" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -2824,13 +3043,13 @@
         <v>334</v>
       </c>
       <c r="B87" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C87" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D87" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -2838,13 +3057,13 @@
         <v>335</v>
       </c>
       <c r="B88" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C88" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D88" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -2852,13 +3071,251 @@
         <v>336</v>
       </c>
       <c r="B89" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C89" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D89" t="s">
-        <v>355</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>357</v>
+      </c>
+      <c r="B90" t="s">
+        <v>362</v>
+      </c>
+      <c r="C90" t="s">
+        <v>363</v>
+      </c>
+      <c r="D90" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>361</v>
+      </c>
+      <c r="B91" t="s">
+        <v>366</v>
+      </c>
+      <c r="C91" t="s">
+        <v>367</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>365</v>
+      </c>
+      <c r="B92" t="s">
+        <v>381</v>
+      </c>
+      <c r="C92" t="s">
+        <v>382</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>369</v>
+      </c>
+      <c r="B93" t="s">
+        <v>384</v>
+      </c>
+      <c r="C93" t="s">
+        <v>385</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>370</v>
+      </c>
+      <c r="B94" t="s">
+        <v>387</v>
+      </c>
+      <c r="C94" t="s">
+        <v>388</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>371</v>
+      </c>
+      <c r="B95" t="s">
+        <v>390</v>
+      </c>
+      <c r="C95" t="s">
+        <v>391</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>372</v>
+      </c>
+      <c r="B96" t="s">
+        <v>393</v>
+      </c>
+      <c r="C96" t="s">
+        <v>394</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>373</v>
+      </c>
+      <c r="B97" t="s">
+        <v>396</v>
+      </c>
+      <c r="C97" t="s">
+        <v>398</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>374</v>
+      </c>
+      <c r="B98" t="s">
+        <v>399</v>
+      </c>
+      <c r="C98" t="s">
+        <v>400</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>375</v>
+      </c>
+      <c r="B99" t="s">
+        <v>403</v>
+      </c>
+      <c r="C99" t="s">
+        <v>402</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>376</v>
+      </c>
+      <c r="B100" t="s">
+        <v>405</v>
+      </c>
+      <c r="C100" t="s">
+        <v>407</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>377</v>
+      </c>
+      <c r="B101" t="s">
+        <v>408</v>
+      </c>
+      <c r="C101" t="s">
+        <v>409</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>378</v>
+      </c>
+      <c r="B102" t="s">
+        <v>413</v>
+      </c>
+      <c r="C102" t="s">
+        <v>411</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>379</v>
+      </c>
+      <c r="B103" t="s">
+        <v>415</v>
+      </c>
+      <c r="C103" t="s">
+        <v>414</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>380</v>
+      </c>
+      <c r="B104" t="s">
+        <v>419</v>
+      </c>
+      <c r="C104" t="s">
+        <v>421</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>417</v>
+      </c>
+      <c r="B105" t="s">
+        <v>422</v>
+      </c>
+      <c r="C105" t="s">
+        <v>423</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>418</v>
+      </c>
+      <c r="B106" t="s">
+        <v>339</v>
+      </c>
+      <c r="C106" t="s">
+        <v>327</v>
+      </c>
+      <c r="D106" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\AGORA_AE\MOOTUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1284259-0943-4FEC-A975-974FCE9AAB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2567F4-DA9C-4BB1-8170-A8CD2B28C3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
   <si>
     <t>release</t>
   </si>
@@ -1421,6 +1421,58 @@
   <si>
     <t>« Faire schmolitz » veut dire « passer du vouvoiement au tutoiement ». Le rituel, dans sa forme la plus traditionnelle, consiste à offrir le tutoiement en croisant des verres, en faisant cul sec. S’écrit aussi ‘schmollitz’ ou ‘schmollis’.
 « On vient à la recherche de l'oncle Auguste : «Connais pas, qu'il a fait, mais ça n'a pas d'importance. On va examiner le cas. On est organisé pour! Ah! Vous êtes suisses! Beau pays! Buvons un pernod, en attendant!» On en a bu dix. On a fait «schmolitz»! On a chanté [...]. » (J.-P. Moulin, L'Humour des Suisses, 1975, p. 52).</t>
+  </si>
+  <si>
+    <t>day_106</t>
+  </si>
+  <si>
+    <t>biscome</t>
+  </si>
+  <si>
+    <t>Biscôme (n.m)</t>
+  </si>
+  <si>
+    <t>Pain d'épices, édulcoré au miel, généralement rectangulaire, de couleur brune, et que l'on mange surtout en décembre, avant Noël. Attention à ne pas le perdre si tu le trempes trop longtemps dans ton lait ou dans ton thé !
+« Une belle histoire, c'était alors «Hänsel et Gretel» dans leur maison toute de «biscome» [sic], de chocolat et de sucreries [...]. » (W. Dubois, En poussant nos clédars, 1959, p. 184.)</t>
+  </si>
+  <si>
+    <t>day_107</t>
+  </si>
+  <si>
+    <t>livret</t>
+  </si>
+  <si>
+    <t>Livret (n.m)</t>
+  </si>
+  <si>
+    <t>Alors, ton livret de 9, tu t’en souviens ? Oui c’est bien de la table de multiplication dont il s’agît. 
+« A l'école je ne comprenais rien au calcul, au livret. Mais là c'était une autre paire de manches! Tous les chiffres miraculeusement se fondaient dans un spectacle où rien ne m'était étranger. » (J. Chessex, Portrait des Vaudois, 1969, p. 155.)</t>
+  </si>
+  <si>
+    <t>day_108</t>
+  </si>
+  <si>
+    <t>day_109</t>
+  </si>
+  <si>
+    <t>alpage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpage (n.m) </t>
+  </si>
+  <si>
+    <t>bonnard</t>
+  </si>
+  <si>
+    <t>Bonnard (adj. inv.)</t>
+  </si>
+  <si>
+    <t>Pâturage de haute montagne (Alpes, chaîne du Jura), où les troupeaux de bovins (évent. d'ovins et de caprins) séjournent à la belle saison.
+« La montée à l'alpage demeure toutefois, pour les bêtes, un moment de grande excitation. (P. Hugger, Le Jura vaudois, 1975, p. 132.)</t>
+  </si>
+  <si>
+    <t>Personne sympathique, aimable, de bonne compagnie. Mais s’utilise aussi pour un lieu ou la météo, pour dire que qu’il y fait bon vivre, que c’est chouette, agréable.
+« Toute mention de termes rappelant, même indirectement, l'origine fédérale d'un objet de scrutin sera désormais supprimée. Par exemple : ce ne sont pas les services de M. Ch. qui proposent d'introduire la TVA, mais un chouette groupe de contribuables bonards des Pâquis. » (Tribune de Le Matin, 3 octobre 1976, p. 10)</t>
   </si>
 </sst>
 </file>
@@ -1821,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2973,13 +3025,13 @@
         <v>304</v>
       </c>
       <c r="B82" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C82" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D82" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -2987,13 +3039,13 @@
         <v>305</v>
       </c>
       <c r="B83" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C83" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D83" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -3001,13 +3053,13 @@
         <v>331</v>
       </c>
       <c r="B84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C84" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D84" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -3015,13 +3067,13 @@
         <v>332</v>
       </c>
       <c r="B85" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C85" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D85" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -3029,13 +3081,13 @@
         <v>333</v>
       </c>
       <c r="B86" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C86" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D86" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -3043,13 +3095,13 @@
         <v>334</v>
       </c>
       <c r="B87" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C87" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -3057,13 +3109,13 @@
         <v>335</v>
       </c>
       <c r="B88" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C88" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -3071,13 +3123,13 @@
         <v>336</v>
       </c>
       <c r="B89" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C89" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D89" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -3085,13 +3137,13 @@
         <v>357</v>
       </c>
       <c r="B90" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C90" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D90" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -3099,13 +3151,13 @@
         <v>361</v>
       </c>
       <c r="B91" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C91" t="s">
-        <v>367</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
+      </c>
+      <c r="D91" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -3113,13 +3165,13 @@
         <v>365</v>
       </c>
       <c r="B92" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C92" t="s">
-        <v>382</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>383</v>
+        <v>367</v>
+      </c>
+      <c r="D92" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -3127,13 +3179,13 @@
         <v>369</v>
       </c>
       <c r="B93" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C93" t="s">
-        <v>385</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
+      </c>
+      <c r="D93" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -3141,13 +3193,13 @@
         <v>370</v>
       </c>
       <c r="B94" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C94" t="s">
-        <v>388</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
+      </c>
+      <c r="D94" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -3155,13 +3207,13 @@
         <v>371</v>
       </c>
       <c r="B95" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C95" t="s">
-        <v>391</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
+      </c>
+      <c r="D95" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -3169,13 +3221,13 @@
         <v>372</v>
       </c>
       <c r="B96" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C96" t="s">
-        <v>394</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
+      </c>
+      <c r="D96" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -3183,13 +3235,13 @@
         <v>373</v>
       </c>
       <c r="B97" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C97" t="s">
-        <v>398</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
+      </c>
+      <c r="D97" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -3197,13 +3249,13 @@
         <v>374</v>
       </c>
       <c r="B98" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C98" t="s">
-        <v>400</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
+      </c>
+      <c r="D98" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -3211,13 +3263,13 @@
         <v>375</v>
       </c>
       <c r="B99" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C99" t="s">
-        <v>402</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
+      </c>
+      <c r="D99" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -3225,13 +3277,13 @@
         <v>376</v>
       </c>
       <c r="B100" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C100" t="s">
-        <v>407</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
+      </c>
+      <c r="D100" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -3239,13 +3291,13 @@
         <v>377</v>
       </c>
       <c r="B101" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C101" t="s">
-        <v>409</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
+      </c>
+      <c r="D101" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -3253,13 +3305,13 @@
         <v>378</v>
       </c>
       <c r="B102" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C102" t="s">
-        <v>411</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
+      </c>
+      <c r="D102" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -3267,13 +3319,13 @@
         <v>379</v>
       </c>
       <c r="B103" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C103" t="s">
-        <v>414</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
+      </c>
+      <c r="D103" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -3281,13 +3333,13 @@
         <v>380</v>
       </c>
       <c r="B104" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C104" t="s">
-        <v>421</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
+      </c>
+      <c r="D104" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -3295,13 +3347,13 @@
         <v>417</v>
       </c>
       <c r="B105" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C105" t="s">
-        <v>423</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
+      </c>
+      <c r="D105" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -3309,13 +3361,69 @@
         <v>418</v>
       </c>
       <c r="B106" t="s">
-        <v>339</v>
+        <v>422</v>
       </c>
       <c r="C106" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
       <c r="D106" t="s">
-        <v>328</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>425</v>
+      </c>
+      <c r="B107" t="s">
+        <v>426</v>
+      </c>
+      <c r="C107" t="s">
+        <v>427</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>429</v>
+      </c>
+      <c r="B108" t="s">
+        <v>430</v>
+      </c>
+      <c r="C108" t="s">
+        <v>431</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>433</v>
+      </c>
+      <c r="B109" t="s">
+        <v>435</v>
+      </c>
+      <c r="C109" t="s">
+        <v>436</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>434</v>
+      </c>
+      <c r="B110" t="s">
+        <v>437</v>
+      </c>
+      <c r="C110" t="s">
+        <v>438</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\AGORA_AE\MOOTUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2567F4-DA9C-4BB1-8170-A8CD2B28C3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF076A7-48E4-4175-BE3A-C666846B3759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="497">
   <si>
     <t>release</t>
   </si>
@@ -1473,13 +1473,192 @@
   <si>
     <t>Personne sympathique, aimable, de bonne compagnie. Mais s’utilise aussi pour un lieu ou la météo, pour dire que qu’il y fait bon vivre, que c’est chouette, agréable.
 « Toute mention de termes rappelant, même indirectement, l'origine fédérale d'un objet de scrutin sera désormais supprimée. Par exemple : ce ne sont pas les services de M. Ch. qui proposent d'introduire la TVA, mais un chouette groupe de contribuables bonards des Pâquis. » (Tribune de Le Matin, 3 octobre 1976, p. 10)</t>
+  </si>
+  <si>
+    <t>day_110</t>
+  </si>
+  <si>
+    <t>day_111</t>
+  </si>
+  <si>
+    <t>day_112</t>
+  </si>
+  <si>
+    <t>day_113</t>
+  </si>
+  <si>
+    <t>day_114</t>
+  </si>
+  <si>
+    <t>day_115</t>
+  </si>
+  <si>
+    <t>day_116</t>
+  </si>
+  <si>
+    <t>day_117</t>
+  </si>
+  <si>
+    <t>cupesse</t>
+  </si>
+  <si>
+    <t>Cupesse (n.f.)</t>
+  </si>
+  <si>
+    <t>Une culbute, une cabriole ! Le terme donne son propre verbe en Suisse romande, « cupesser ». De même, la locution « en cupesse » signifie en désordre, sens dessus dessous. Mais, sur Vaud et Genève, « faire (la) cupesse » et « en cupesse » veulent aussi dire « faire faillite ».
+« Le directeur mène le bal, son copain le notaire fait la cupesse, ah oui je vous dis que Bex rend fou! » (J. Chessex, Portrait des Vaudois, 1969, p. 207)</t>
+  </si>
+  <si>
+    <t>rebibes</t>
+  </si>
+  <si>
+    <t>Rebibes (n.f. pl.)</t>
+  </si>
+  <si>
+    <t>Copeaux d'un fromage dur raboté avec un objet tranchant et que l'on sert, entre autres, pour accompagner un apéritif au vin blanc. Aussi, de viande séchée, ou autres miettes et petits restes. Originaire de Vaud et Fribourg, mais aujourd’hui partout en Suisse romande.
+« Un apéritif sur mesure ? Prenez un morceau de sbrinz], un couteau à éplucher et taillez de belles «rebibes» c'est-à-dire de beaux copeaux. [...] Servez avec cela un vin du pays. » (Trente Jours, 1er août 1969, p. 13).</t>
+  </si>
+  <si>
+    <t>astiquee</t>
+  </si>
+  <si>
+    <t>Astiquée (n.f.)</t>
+  </si>
+  <si>
+    <t>Terme familier pour désigner une volée de coups, rossée, râclée ; aussi, une forte réprimande, engueulade, correction verbale ou encore une défaite humiliante, un échec cuisant. Plus rare, un bel état d’ivresse.</t>
+  </si>
+  <si>
+    <t>mollachu</t>
+  </si>
+  <si>
+    <t>Mollachu (adj. et n.)</t>
+  </si>
+  <si>
+    <t>Personne ou chose molle, sans énergie, apathique. Presque uniquement à l’oral, et limité principalement à Vaud et Genève. 
+« Pourquoi s'est-il coincé dans cette atroce bonbonnière où se tortille la mollachue quinquagénaire ? » ( J. Chessex, Carabas, 1971, p. 159)</t>
+  </si>
+  <si>
+    <t>poutzer</t>
+  </si>
+  <si>
+    <t>Poutzer (v. tr.)</t>
+  </si>
+  <si>
+    <t>S’écrit aussi « poutser » ou « putzer ». Le terme romand par excellence pour dire « nettoyer » ! Pas besoin de l’expliquer celui-ci, si ce n’est on origine : il provient tout simplement de l’allemand « putzen » (frotter, laver).
+« Dans la ferme, on s'était levé plus tôt que moi, car le four finissait de digérer sa ration de bois et la paysanne s'apprêtait à le vider, à le «poutzer» de ses cendres pour y mettre les miches toutes préparées là, sur une planche de bois blanc. »  (W. Dubois, En poussant nos clédars, 1959 p. 166).</t>
+  </si>
+  <si>
+    <t>cayons</t>
+  </si>
+  <si>
+    <t>Cayon (n.m.)</t>
+  </si>
+  <si>
+    <t>S’écrit aussi « caïon » ou « kayon ». Il s’agit d’un terme rural pour désigner le cochon et sa viande, mais aussi en tant qu’insulte ! Plutôt utilisé dans les cantons de Vaud, Genève, Valais et Fribourg.
+« Il était défendu d'acheter des bœufs ou kayons dans les quinze jours qui précédaient et suivaient la St-Martin. » (Cl. Cotting, Fribourg au moyen-âge vu par un Bolze, 1976, p. 37)</t>
+  </si>
+  <si>
+    <t>foyard</t>
+  </si>
+  <si>
+    <t>Foyard (n.m.)</t>
+  </si>
+  <si>
+    <t>Hêtre ou bois de hêtre. À Genève et dans les parties de Vaud limitrophes, se dit aussi « fayard ». 
+« Ce jour, sous la pluie qui vient de faire leur toilette, mes sapins sont beaux et fiers; avec leurs pousses vert tendre, ils ressemblent à des trimardeurs en habit des dimanches; ils sont lumineux, frais et narguent les foyards à demi gelés, qui, comme des intrus perdus dans un cortège, voudraient s'échapper de leur masse. » (W. Dubois, En poussant nos clédars, 1959, p. 42).</t>
+  </si>
+  <si>
+    <t>lutrin</t>
+  </si>
+  <si>
+    <t>Lutrin (n.m)</t>
+  </si>
+  <si>
+    <t>Support en métal ou en bois, souvent léger et pliable, de hauteur réglable, composé d'un pied et d'un plateau inclinable avec un rebord sur sa partie inférieure, permettant à l'interprète d'y poser ses partitions.
+« Elle s'avança d'une traite jusqu'au piano, elle rabattit violemment le couvercle de l'instrument dont les cordes ébranlées résonnèrent dans tout son corps dressé contre le silence de l'intrus [...]. Une seconde immobile, tout à coup, elle renversa le lutrin qui prolongea le sursaut des cordes, puis elle repoussa les partitions qui s'y trouvaient. » (J.-P. Monnier, Les Algues du fond, 1960, p. 71)</t>
+  </si>
+  <si>
+    <t>day_118</t>
+  </si>
+  <si>
+    <t>day_119</t>
+  </si>
+  <si>
+    <t>day_120</t>
+  </si>
+  <si>
+    <t>day_121</t>
+  </si>
+  <si>
+    <t>day_122</t>
+  </si>
+  <si>
+    <t>signofil</t>
+  </si>
+  <si>
+    <t>Signofil (n.m.)</t>
+  </si>
+  <si>
+    <t>Dispositif muni d'une lumière intermittente servant à indiquer la direction que va prendre un véhicule automobile. Le terme français « clignotant » s’utilise aussi à Genève et dans le Jura, alors qu’on retrouve « clignoteur » dans le canton de Neuchâtel.
+« C'est un peu après 14h30 que s'est produit le drame. Venant de Lucens, deux camionnettes circulaient en direction de Moudon sur la route cantonale. Le véhicule de tête, une fourgonnette militaire de l'école de recrues [...], aurait enclenché son signofile à l'entrée de Moudon sans toutefois emprunter la sortie, a noté la conductrice de la seconde fourgonnette. » (La Liberté, 18 juillet 1997, p. 15)</t>
+  </si>
+  <si>
+    <t>ajouture</t>
+  </si>
+  <si>
+    <t>Ajouture (n.f.)</t>
+  </si>
+  <si>
+    <t>Ajout, partie ajoutée, rallonge (par ex. à un vêtement). « Faire une ajouture à une robe. »</t>
+  </si>
+  <si>
+    <t>mordache</t>
+  </si>
+  <si>
+    <t>Mordache (n.f.)</t>
+  </si>
+  <si>
+    <t>« Avoir de la mordache. » Mordache est un synonyme de « bagou » « faconde ». Une personne qui parle beaucoup, en somme.</t>
+  </si>
+  <si>
+    <t>raccard</t>
+  </si>
+  <si>
+    <t>Raccard (n.m.)</t>
+  </si>
+  <si>
+    <t>Construction alpine traditionnelle de dimensions relativement modestes servant à emmagasiner les céréales, ainsi qu'à faire sécher herbages, jambons, saucissons et autres viandes. Il s’agit plutôt d’un terme valaisan, même s’il est connu sporadiquement en Suisse romande.
+« J’ai vécu mon enfance dans la crainte du feu, dans la peur de la mort. [...] Village de bois, sur la colline, vieilles poutres desséchées par le soleil, proies craquantes, mèches de paille entre les madriers des «raccards», désordre de toutes ces bûches éparses ou entassées : provocations... » (M. Zermatten, Les Sèves d'enfance, 1968, p. 65)</t>
+  </si>
+  <si>
+    <t>roestis</t>
+  </si>
+  <si>
+    <t>Roestis (n. m. pl.)</t>
+  </si>
+  <si>
+    <t>Mets composé de pommes de terre cuites ou crues, râpées en fines lanières et rôties avec de la graisse ou de l'huile dans la poêle, où elles forment une galette dorée croustillante à l'extérieur et fondante à l'intérieur.
+« On goûtera à cinq heures : café au lait, pain, röstis, beurre, fromage, confiture et souvent un plat doux, une crème, spécialité de grand-mère, ou encore une compote de fruits. » (A. Itten, R. Bastian, En çà... en là!, 1975 p. 166).</t>
+  </si>
+  <si>
+    <t>day_123</t>
+  </si>
+  <si>
+    <t>gouille</t>
+  </si>
+  <si>
+    <t>Gouille (n.f.)</t>
+  </si>
+  <si>
+    <t>Flaque d'eau, mais aussi mare ou petit plan d’eau. En Valais, aménagement à certains endroits du cours d'un torrent pour limiter la force du débit. Peut s’utiliser aussi, pour plaisanter, afin e désigner les grands étendus d’eau : le Léman, la Méditerranée, l’Atlantique, etc.
+« Parfois le parapluie fait aussi de splendides balades sous une pluie douce de printemps; il se glisse sous les sapins dont les rameaux font chanter la toile tendue et finit, avec son maître, dans un petit café de campagne; mal élevé il fait une gouille sur le plancher, mais on lui pardonne car, témoin muet, il ne dira jamais où sont les coins des premières morilles. » (W. Dubois, En poussant nos clédars, 1956 p. 31).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1506,6 +1685,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1527,7 +1713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1539,6 +1725,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1873,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3380,7 +3569,7 @@
       <c r="C107" t="s">
         <v>427</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" t="s">
         <v>428</v>
       </c>
     </row>
@@ -3394,7 +3583,7 @@
       <c r="C108" t="s">
         <v>431</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" t="s">
         <v>432</v>
       </c>
     </row>
@@ -3408,7 +3597,7 @@
       <c r="C109" t="s">
         <v>436</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" t="s">
         <v>439</v>
       </c>
     </row>
@@ -3422,8 +3611,204 @@
       <c r="C110" t="s">
         <v>438</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" t="s">
         <v>440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>441</v>
+      </c>
+      <c r="B111" t="s">
+        <v>449</v>
+      </c>
+      <c r="C111" t="s">
+        <v>450</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>442</v>
+      </c>
+      <c r="B112" t="s">
+        <v>452</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>443</v>
+      </c>
+      <c r="B113" t="s">
+        <v>455</v>
+      </c>
+      <c r="C113" t="s">
+        <v>456</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>444</v>
+      </c>
+      <c r="B114" t="s">
+        <v>458</v>
+      </c>
+      <c r="C114" t="s">
+        <v>459</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>445</v>
+      </c>
+      <c r="B115" t="s">
+        <v>461</v>
+      </c>
+      <c r="C115" t="s">
+        <v>462</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>446</v>
+      </c>
+      <c r="B116" t="s">
+        <v>464</v>
+      </c>
+      <c r="C116" t="s">
+        <v>465</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>447</v>
+      </c>
+      <c r="B117" t="s">
+        <v>467</v>
+      </c>
+      <c r="C117" t="s">
+        <v>468</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>448</v>
+      </c>
+      <c r="B118" t="s">
+        <v>470</v>
+      </c>
+      <c r="C118" t="s">
+        <v>471</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>473</v>
+      </c>
+      <c r="B119" t="s">
+        <v>478</v>
+      </c>
+      <c r="C119" t="s">
+        <v>479</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>474</v>
+      </c>
+      <c r="B120" t="s">
+        <v>481</v>
+      </c>
+      <c r="C120" t="s">
+        <v>482</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>475</v>
+      </c>
+      <c r="B121" t="s">
+        <v>484</v>
+      </c>
+      <c r="C121" t="s">
+        <v>485</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>476</v>
+      </c>
+      <c r="B122" t="s">
+        <v>487</v>
+      </c>
+      <c r="C122" t="s">
+        <v>488</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>477</v>
+      </c>
+      <c r="B123" t="s">
+        <v>490</v>
+      </c>
+      <c r="C123" t="s">
+        <v>491</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>493</v>
+      </c>
+      <c r="B124" t="s">
+        <v>494</v>
+      </c>
+      <c r="C124" t="s">
+        <v>495</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\AGORA_AE\MOOTUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF076A7-48E4-4175-BE3A-C666846B3759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9236B3F-8118-4619-9E03-83D9F3FBE80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="597">
   <si>
     <t>release</t>
   </si>
@@ -1652,6 +1652,331 @@
   <si>
     <t>Flaque d'eau, mais aussi mare ou petit plan d’eau. En Valais, aménagement à certains endroits du cours d'un torrent pour limiter la force du débit. Peut s’utiliser aussi, pour plaisanter, afin e désigner les grands étendus d’eau : le Léman, la Méditerranée, l’Atlantique, etc.
 « Parfois le parapluie fait aussi de splendides balades sous une pluie douce de printemps; il se glisse sous les sapins dont les rameaux font chanter la toile tendue et finit, avec son maître, dans un petit café de campagne; mal élevé il fait une gouille sur le plancher, mais on lui pardonne car, témoin muet, il ne dira jamais où sont les coins des premières morilles. » (W. Dubois, En poussant nos clédars, 1956 p. 31).</t>
+  </si>
+  <si>
+    <t>day_124</t>
+  </si>
+  <si>
+    <t>day_125</t>
+  </si>
+  <si>
+    <t>day_126</t>
+  </si>
+  <si>
+    <t>day_127</t>
+  </si>
+  <si>
+    <t>day_128</t>
+  </si>
+  <si>
+    <t>day_129</t>
+  </si>
+  <si>
+    <t>day_130</t>
+  </si>
+  <si>
+    <t>day_131</t>
+  </si>
+  <si>
+    <t>day_132</t>
+  </si>
+  <si>
+    <t>day_133</t>
+  </si>
+  <si>
+    <t>day_134</t>
+  </si>
+  <si>
+    <t>day_135</t>
+  </si>
+  <si>
+    <t>day_136</t>
+  </si>
+  <si>
+    <t>day_137</t>
+  </si>
+  <si>
+    <t>day_138</t>
+  </si>
+  <si>
+    <t>day_139</t>
+  </si>
+  <si>
+    <t>day_140</t>
+  </si>
+  <si>
+    <t>day_141</t>
+  </si>
+  <si>
+    <t>day_142</t>
+  </si>
+  <si>
+    <t>day_143</t>
+  </si>
+  <si>
+    <t>longeole</t>
+  </si>
+  <si>
+    <t>Longeole (n.f.)</t>
+  </si>
+  <si>
+    <t>Spécialité culinaire genevoise : la longeole est une grosse saucisse de porc, de forme allongée, contenant de la couenne de porc hachée et des fines herbes.
+« Dans cette fameuse nuit du 11 au 12 décembre 1602, la Mère Royaume, qui avait quelque peu abusé de la longeole et du [vin] nouveau du Mandement [= petite région du canton de GE], n'arrivait pas à trouver le sommeil. » (G. Duttweiler, Joyeusetés du Pays de Vaud et d'ailleurs, 1972, p. 31)</t>
+  </si>
+  <si>
+    <t>suspente</t>
+  </si>
+  <si>
+    <t>Suspente (n.f.)</t>
+  </si>
+  <si>
+    <t>Se dit dans les cantons de Neuchâtel, Berne, Jura et Vaud pour indiquer le lacet, cordon cousu à un habit ou à un linge pour le suspendre.
+« Aujourd'hui, le linge de cuisine helvétique emboîte le pas. 100% coton, finement quadrillé rouge sur fond écru, [...] facile à laver, il quitte les piles de torchons pour subir les plus étonnantes métamorphoses. Les linges que nous vous offrons mesurent 43 x 80 cm. Ils sont pourvus de suspentes. On peut s'en servir, dans la bonne tradition, comme essuie-vaisselle. Ou se laisser guider par la fantaisie [...]. » (Femina, 30 juin 1976, p. 42).</t>
+  </si>
+  <si>
+    <t>Éclaffée (n.f.)</t>
+  </si>
+  <si>
+    <t>éclaffée</t>
+  </si>
+  <si>
+    <t>Une éclaffée, c’est un grand éclat de rire ! Mais aussi, et toujours romand, le participe passé du verbe « éclaffer », qui signifie briser, casser, écraser.
+« Elle se hausse un peu sur la pointe des pieds, tente de glisser le billet entre porte et chambranle. Le papier se plie, n'entre pas. [...] Elle essaie encore une fois : en vain. [...] D'un geste sec, tenant la feuille du calendrier tendue, elle la crève par le milieu dans la poignée de la porte où elle la laisse, éclafée. » (M. Zermatten, La Porte blanche, 1973, p. 86)</t>
+  </si>
+  <si>
+    <t>canarder</t>
+  </si>
+  <si>
+    <t>Canarder (v. intrans.)</t>
+  </si>
+  <si>
+    <t>Tomber, culbuter en glissant. Il s’agit d’une innovation sémantique du français de référence, qui provient de l’image du canard qui plonge sous l’eau pour se nourrir. 
+« Hélas, un faux mouvement et voilà notre Marc qui canarde et qui se retrouve le coccyx sur la poudreuse qui n'était guère épaisse. » (Le Rai-Tiai-Tiai aidjolat, 1997, nº 21, p. 24.)</t>
+  </si>
+  <si>
+    <t>bossette</t>
+  </si>
+  <si>
+    <t>Bossette (n.f.)</t>
+  </si>
+  <si>
+    <t>Grand tonneau de forme allongée, couché et fixé sur un char, percé d'une ouverture rectangulaire pouvant être munie d'un grand entonnoir et servant au transport du purin, ou le raisin de la vigne au pressoir lors de la vendange, dépendant des cantons.
+« Les deux gaillards turbinent dur à remplir les bossettes, quand Désiré laisse tomber sa veste et saute dans le purin pour aller la rechercher... » (G. Clavien, Le Partage, 1976, p. 416).</t>
+  </si>
+  <si>
+    <t>jeunesse</t>
+  </si>
+  <si>
+    <t>Jeunesse (n.f.)</t>
+  </si>
+  <si>
+    <t>Société des jeunes gens d'un village, principalement du canton de Vaud et Fribourg, mais pas que !
+« Le président de la jeunesse tient le panier devant lui et chacun s'avance, tire un morceau de papier, le déplie, crie le nom de l'élue. De celle qu'ils conduiront au bal. [...] André se tient à l'écart. Il n'a pas participé aux ébats de la jeunesse. » (A. Layaz, Malvallée, 1976, p. 123)</t>
+  </si>
+  <si>
+    <t>manchette</t>
+  </si>
+  <si>
+    <t>Manchette (n.f.)</t>
+  </si>
+  <si>
+    <t>Petite affiche se trouvant la plupart du temps en devanture des kiosques et annonçant en gros caractères un des titres importants (mais pas obligatoirement à la une) du journal.
+« [...] une de ces rafales m'a pris de plein fouet, jeté par terre et promené dans la caillasse et les ronces comme une manchette de journal. » (N. Bouvier, Journal d'Aran et d'autres lieux, 1990, p. 40).</t>
+  </si>
+  <si>
+    <t>rebuse</t>
+  </si>
+  <si>
+    <t>Rebuse (n.f.)</t>
+  </si>
+  <si>
+    <t>La rebuse est le fameux retour du froid, surtout au printemps. Il existe plusieurs rebuses : la rebuse au coucou, la rebuse de l’épine noire et la rebuse de l’épine blanche, entre autre. Surtout connue dans le canton de Vaud et de Neuchâtel, mais sporadiquement connu dans les autres cantons.
+« Plus éloignées, les prairies et les semées elles aussi se laissaient attendrir par le vent printanier après s'être raidies sous les dures attaques des bises hivernales, des traîtres rebuses de mars et d'avril. » (A.-L. Chappuis, Le Toupeau errant, 1972, p. 21)</t>
+  </si>
+  <si>
+    <t>firobe</t>
+  </si>
+  <si>
+    <t>Faire la firôbe (loc. verb.)</t>
+  </si>
+  <si>
+    <t>Dépendant des cantons, faire la « firôbe / firobe », « firabe / firâbe », « furobe » : cela signifie rester dans un établissement de restauration ou un débit de boisson jusqu'à l'heure de la fermeture.
+« Auvernier fêtera la vendange dans ses belles rues aux façades anciennes, et de loin on viendra faire firobe dans la fumée bleue, parmi les saucissons odorants et les chopines. » (M. North, J. Montandon, Neuchâtel à table, 1973, p. 106)</t>
+  </si>
+  <si>
+    <t>cheneau</t>
+  </si>
+  <si>
+    <t>Cheneau (n.f.)</t>
+  </si>
+  <si>
+    <t>Canal fixé au bord inférieur des toits, ayant pour fonction de recueillir les eaux de pluie; tuyau de descente des eaux de pluie.
+« En effet, les chenaux du vénérable édifice n'avaient pas été nettoyées depuis la fin de l'hiver et l'afflux d'eau dû à la violence de l'orage en question a provoqué le débordement perturbateur. » (Vevey-Riviera, 2 juin 1992)</t>
+  </si>
+  <si>
+    <t>bedoume</t>
+  </si>
+  <si>
+    <t>Bedoume (n.f. ou adj.)</t>
+  </si>
+  <si>
+    <t>Mais quelle bedoume ! Personne sans intelligence, sotte. Si le mot s'applique surtout aux sujets féminins, plusieurs témoins affirment tout de même l'employer aussi en parlant de sujets masculins. Aussi, même si le terme est connu partout en Suisse romande, il est perçu comme étant bien vaudois.
+« Et ces filles catholiques vaudoises, les a qui veut, elles cèdent toujours. Des demeurées, des bedoumes! » (J. Chessex, Portrait des Vaudois, 1969, p. 121)</t>
+  </si>
+  <si>
+    <t>roiller</t>
+  </si>
+  <si>
+    <t>Roiller (v. intrans. ou trans.)</t>
+  </si>
+  <si>
+    <t>Bien sûr, « roiller » chez nous c’est « pleuvoir », « il roille monstre beaucoup ! ». Mais ! Le terme peut aussi vouloir dire « battre, frapper (sur qqn., à une porte, etc.) ».
+« Il roille tant qu'ça peut! T'as vu les gouilles qu'ça fait sur la place ? Tu crois qu'on pourra quand même faire boucherie sur le coup de midi ? C'est qu'j'ai pas d'abris, moi... On a toujours fait ça dans la cour, devant la ferme! » (P. Hoffer, On m'a dit... sur la Côte, 2002, p.161).</t>
+  </si>
+  <si>
+    <t>seillon</t>
+  </si>
+  <si>
+    <t>Seillon (n.m.)</t>
+  </si>
+  <si>
+    <t>Terme un peu vieilli, pour désigner un petit seau en bois à bords évasés, muni d'une seule poignée constituée d'une ouverture percée dans le prolongement d'une douve, utilisé comme récipient à diverses fins, mais en particulier pour recueillir le lait de la traite.
+« La Marquise m'en a fait un crouille [en parlant d'un veau] qui ne veut pas boire son lait. J'ai beau lui mettre le doigt dans la bouche, lui garder la tête dans le seillon, cette rosse de bête [...] m'asperge à chaque coup. » (A. Itten, R. Bastian, Santé! Conservation..., 1970, p. 52)</t>
+  </si>
+  <si>
+    <t>trempe</t>
+  </si>
+  <si>
+    <t>Trempe (adj.)</t>
+  </si>
+  <si>
+    <t>« Trempe », et non « trempé » ! On l’utilise lorsqu’on est très mouillé, souvent après une grosse roille.
+« Cathy s'épuisait à engranger dans la benne. Ses sandalettes pataugeaient dans le sol gras. Elle était aussi trempe que si elle se fût mise à l'eau. » (M. Métral, Un Jour de votre vie, 1976, p. 71)</t>
+  </si>
+  <si>
+    <t>cafignons</t>
+  </si>
+  <si>
+    <t>Cafignons (n.m. pl.)</t>
+  </si>
+  <si>
+    <t>Pantoufles de feutre ou patins qu’on enfile sur les chaussures pour ne pas salir le parquet. (Mot de l’arc jurassien)
+« [...] j'ai remis dans la naphtaline mon vieux «spencer», mon cache-nez, ma pèlerine et mes «cafignons» de feutre [...]. »	(W. Dubois, En poussant nos clédars, 1959, p. 143.)</t>
+  </si>
+  <si>
+    <t>châble</t>
+  </si>
+  <si>
+    <t>Châble (n.m)</t>
+  </si>
+  <si>
+    <t>Passage naturel en pente rapide, déboisé, où l’on fait dévaler dans les forêts de montagne les troncs, les billes de bois. 
+« Demande au domestique s'il reste beaucoup de neige. Demande-lui la glissade des rouleaux de foin dans la charrière gelée, l'odeur des billons sur le châble et dans le bois les petits oiseaux gris qui se pendent la tête en bas [...]. » (M. Chappaz, À rire et à mourir, 1983, p. 117.)</t>
+  </si>
+  <si>
+    <t>bouchoyer</t>
+  </si>
+  <si>
+    <t>Bouchoyer (v.tr)</t>
+  </si>
+  <si>
+    <t>Abattre et dépecer (un porc, un veau, un lapin, etc.) pour en faire de la viande.
+« Le porc, bouchoyé selon les prescriptions officielles, convenait parfaitement à ces estomacs oublieux des lois mosaïques. » (R. Molliex, Chantevin, 1972, p. 37.)</t>
+  </si>
+  <si>
+    <t>boille</t>
+  </si>
+  <si>
+    <t>Boille (n.f)</t>
+  </si>
+  <si>
+    <t>Récipient métallique, de forme cylindrique, fermé par un couvercle étanche, servant au transport du lait (évent. de la crème); jadis en bois et muni de courroies pour le transport à dos d'homme, il est aujourd'hui simplement muni d'anses. Dans l’arc jurassien vous entendrez plutôt la variante « bouille ».
+« Thonney examina encore cette ferraille, remonta le talus, empoignait ses outils quand arriva le fils Keller, de la laiterie, passant par là avec une boille de crème. » (A.-L. Chappuis, Quand la grêle et le vent, 1960, p. 75.)</t>
+  </si>
+  <si>
+    <t>caquelon</t>
+  </si>
+  <si>
+    <t>Caquelon (n.m)</t>
+  </si>
+  <si>
+    <t>Récipient de cuisine en terre cuite émaillée, sans couvercle, circulaire et pourvu d’un manche, que l’on installe sur un réchaud au milieu des convives pour consommer la fondue au fromage.
+« […] autour du caquelon règne une douce quiétude, un bien-être certain. Autour du caquelon revivent aussi les souvenirs qui semblent éclater de chaque bulle crevant la surface de la crème onctueuse. » (W. Dubois, En poussant nos clédars, 1959, p. 35.)</t>
+  </si>
+  <si>
+    <t>carnotzet</t>
+  </si>
+  <si>
+    <t>Carnotzet (n.m)</t>
+  </si>
+  <si>
+    <t>Local intime et accueillant, d’allure rustique, le plus souvent aménagé dans une cave privée ou publique, où l’on se réunit pour boire et manger entre amis, entre membres d’une société, etc.
+« Sur le chemin du retour, on s’arrête encore ici et là pour boire un verre, et souvent, l’on termine la journée dans le “carnotzet” de l’un des propriétaires. » (P. Hugger, Le Jura vaudois, 1975, p. 137.)</t>
+  </si>
+  <si>
+    <t>day_144</t>
+  </si>
+  <si>
+    <t>day_145</t>
+  </si>
+  <si>
+    <t>day_146</t>
+  </si>
+  <si>
+    <t>day_147</t>
+  </si>
+  <si>
+    <t>day_148</t>
+  </si>
+  <si>
+    <t>carrousel</t>
+  </si>
+  <si>
+    <t>Carrousel (n.m)</t>
+  </si>
+  <si>
+    <t>Manège de chevaux de bois ; (par ext.) tout manège de fête foraine.
+« Les kermesses de village commençaient par un culte matinal, puis c’était l’animation des boutiques et des carrousels, avec les plaisirs de la danse. » (P. Hugger, Le Jura vaudois, 1975, p. 194.)</t>
+  </si>
+  <si>
+    <t>encavage</t>
+  </si>
+  <si>
+    <t>Encavage (n.m)</t>
+  </si>
+  <si>
+    <t>Mise en cave d’aliments à des fins de maturation (vins), d’affinage (fromages) ou de simple conservation (légumes, fruits).
+« La capacité totale d’encavage des quatre caves et de la fédération s’élève à 30 millions de litres. » (Coopération, 4 décembre 1975.)</t>
+  </si>
+  <si>
+    <t>fourneau</t>
+  </si>
+  <si>
+    <t>Fourneau (n.m)</t>
+  </si>
+  <si>
+    <t>Poêle servant au chauffage d’une pièce.
+« Ce mois de décembre, il fut aussi à l’autre bout de la vie celui des matins enneigés derrière les rideaux, quand se formaient les grandes fleurs de givre sur les petits carreaux des fenêtres – il n’y avait pas beaucoup de charbon à brûler dans l’unique fourneau qui chauffait trois pièces. » (A. Rivaz, Jette ton pain, 1979, p. 11.)</t>
+  </si>
+  <si>
+    <t>maturité</t>
+  </si>
+  <si>
+    <t>Maturité (n.f)</t>
+  </si>
+  <si>
+    <t>Titre obtenu à la suite de la réussite des examens terminant les études secondaires supérieures dans un gymnase et permettant l’entrée à l’université ou dans une haute école.
+« – Vous aurez votre Maturité en juin, n’est-ce pas ? – Je l’espère… dit-elle, évasive. » (C. Bille, Juliette éternelle, 1971, p. 137.)</t>
+  </si>
+  <si>
+    <t>gymnase</t>
+  </si>
+  <si>
+    <t>Gymnase (n.m)</t>
+  </si>
+  <si>
+    <t>Établissement d’enseignement secondaire supérieur, dont la fréquentation fait suite à celle de l’école secondaire, se termine par les examens de maturité et permet l’accès à l’université. Vous entendrez également lycée ou collège dans certains cantons. 
+« [...] du point de vue culturel [...] pour beaucoup, le gymnase restera la période d'apprentissage la plus riche et la plus féconde. Et cela précisément parce qu'elle n'est pas encore spécialisée, mais parce qu'elle a pour vocation d'ouvrir des fenêtres à la curiosité de l'esprit. » ( L'Hebdo, 3 juin 1993, p. 49.)</t>
   </si>
 </sst>
 </file>
@@ -1693,12 +2018,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1713,7 +2044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1724,10 +2055,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2062,13 +2394,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10.90625" style="6"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2080,7 +2415,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -2097,7 +2432,7 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2111,7 +2446,7 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2125,7 +2460,7 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2139,7 +2474,7 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2153,7 +2488,7 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2167,7 +2502,7 @@
       <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2181,7 +2516,7 @@
       <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2195,7 +2530,7 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2209,7 +2544,7 @@
       <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2223,7 +2558,7 @@
       <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2237,7 +2572,7 @@
       <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2251,7 +2586,7 @@
       <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2265,7 +2600,7 @@
       <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2279,7 +2614,7 @@
       <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2293,7 +2628,7 @@
       <c r="C16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2307,7 +2642,7 @@
       <c r="C17" t="s">
         <v>67</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2321,7 +2656,7 @@
       <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2335,7 +2670,7 @@
       <c r="C19" t="s">
         <v>76</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2349,7 +2684,7 @@
       <c r="C20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2363,7 +2698,7 @@
       <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2377,7 +2712,7 @@
       <c r="C22" t="s">
         <v>87</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2391,7 +2726,7 @@
       <c r="C23" t="s">
         <v>93</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2405,7 +2740,7 @@
       <c r="C24" t="s">
         <v>92</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2419,7 +2754,7 @@
       <c r="C25" t="s">
         <v>107</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2433,7 +2768,7 @@
       <c r="C26" t="s">
         <v>110</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2447,7 +2782,7 @@
       <c r="C27" t="s">
         <v>112</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2461,7 +2796,7 @@
       <c r="C28" t="s">
         <v>116</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="6" t="s">
         <v>117</v>
       </c>
       <c r="F28" s="1"/>
@@ -2476,7 +2811,7 @@
       <c r="C29" t="s">
         <v>118</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2490,7 +2825,7 @@
       <c r="C30" t="s">
         <v>167</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="6" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2504,7 +2839,7 @@
       <c r="C31" t="s">
         <v>121</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2518,7 +2853,7 @@
       <c r="C32" t="s">
         <v>124</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2532,7 +2867,7 @@
       <c r="C33" t="s">
         <v>142</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2546,7 +2881,7 @@
       <c r="C34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2560,7 +2895,7 @@
       <c r="C35" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="6" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2574,7 +2909,7 @@
       <c r="C36" t="s">
         <v>143</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="6" t="s">
         <v>144</v>
       </c>
       <c r="E36" s="1"/>
@@ -2589,7 +2924,7 @@
       <c r="C37" t="s">
         <v>146</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2603,7 +2938,7 @@
       <c r="C38" t="s">
         <v>149</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2617,7 +2952,7 @@
       <c r="C39" t="s">
         <v>152</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="6" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2631,7 +2966,7 @@
       <c r="C40" t="s">
         <v>155</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2645,7 +2980,7 @@
       <c r="C41" t="s">
         <v>158</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="6" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2659,7 +2994,7 @@
       <c r="C42" t="s">
         <v>161</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2673,7 +3008,7 @@
       <c r="C43" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="6" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2687,7 +3022,7 @@
       <c r="C44" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2701,7 +3036,7 @@
       <c r="C45" t="s">
         <v>188</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2715,7 +3050,7 @@
       <c r="C46" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2729,7 +3064,7 @@
       <c r="C47" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2743,7 +3078,7 @@
       <c r="C48" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2757,7 +3092,7 @@
       <c r="C49" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="6" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2771,7 +3106,7 @@
       <c r="C50" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="6" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2785,7 +3120,7 @@
       <c r="C51" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2799,7 +3134,7 @@
       <c r="C52" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2813,7 +3148,7 @@
       <c r="C53" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2827,7 +3162,7 @@
       <c r="C54" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2841,7 +3176,7 @@
       <c r="C55" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2855,7 +3190,7 @@
       <c r="C56" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2869,7 +3204,7 @@
       <c r="C57" t="s">
         <v>234</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2883,7 +3218,7 @@
       <c r="C58" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="6" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2897,7 +3232,7 @@
       <c r="C59" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="6" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2911,7 +3246,7 @@
       <c r="C60" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="6" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2939,7 +3274,7 @@
       <c r="C62" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="6" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2953,7 +3288,7 @@
       <c r="C63" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="6" t="s">
         <v>252</v>
       </c>
     </row>
@@ -2967,7 +3302,7 @@
       <c r="C64" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="6" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2981,7 +3316,7 @@
       <c r="C65" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="6" t="s">
         <v>268</v>
       </c>
     </row>
@@ -2995,7 +3330,7 @@
       <c r="C66" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="6" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3009,7 +3344,7 @@
       <c r="C67" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="6" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3023,7 +3358,7 @@
       <c r="C68" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="6" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3037,7 +3372,7 @@
       <c r="C69" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="6" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3051,7 +3386,7 @@
       <c r="C70" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3065,7 +3400,7 @@
       <c r="C71" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="6" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3079,7 +3414,7 @@
       <c r="C72" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="6" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3093,7 +3428,7 @@
       <c r="C73" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="6" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3107,7 +3442,7 @@
       <c r="C74" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="6" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3121,7 +3456,7 @@
       <c r="C75" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="6" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3135,7 +3470,7 @@
       <c r="C76" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="6" t="s">
         <v>311</v>
       </c>
     </row>
@@ -3149,7 +3484,7 @@
       <c r="C77" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="6" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3163,7 +3498,7 @@
       <c r="C78" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3177,7 +3512,7 @@
       <c r="C79" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="6" t="s">
         <v>320</v>
       </c>
     </row>
@@ -3191,7 +3526,7 @@
       <c r="C80" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3205,7 +3540,7 @@
       <c r="C81" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="6" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3219,7 +3554,7 @@
       <c r="C82" t="s">
         <v>327</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="6" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3233,7 +3568,7 @@
       <c r="C83" t="s">
         <v>329</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3247,7 +3582,7 @@
       <c r="C84" t="s">
         <v>337</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="6" t="s">
         <v>338</v>
       </c>
     </row>
@@ -3261,7 +3596,7 @@
       <c r="C85" t="s">
         <v>344</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="6" t="s">
         <v>343</v>
       </c>
     </row>
@@ -3275,7 +3610,7 @@
       <c r="C86" t="s">
         <v>345</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="6" t="s">
         <v>347</v>
       </c>
     </row>
@@ -3289,7 +3624,7 @@
       <c r="C87" t="s">
         <v>349</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="6" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3303,7 +3638,7 @@
       <c r="C88" t="s">
         <v>351</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="6" t="s">
         <v>352</v>
       </c>
     </row>
@@ -3317,7 +3652,7 @@
       <c r="C89" t="s">
         <v>354</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="6" t="s">
         <v>355</v>
       </c>
     </row>
@@ -3331,7 +3666,7 @@
       <c r="C90" t="s">
         <v>359</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="6" t="s">
         <v>360</v>
       </c>
     </row>
@@ -3345,7 +3680,7 @@
       <c r="C91" t="s">
         <v>363</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="6" t="s">
         <v>364</v>
       </c>
     </row>
@@ -3359,7 +3694,7 @@
       <c r="C92" t="s">
         <v>367</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="6" t="s">
         <v>368</v>
       </c>
     </row>
@@ -3373,7 +3708,7 @@
       <c r="C93" t="s">
         <v>382</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="6" t="s">
         <v>383</v>
       </c>
     </row>
@@ -3387,7 +3722,7 @@
       <c r="C94" t="s">
         <v>385</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="6" t="s">
         <v>386</v>
       </c>
     </row>
@@ -3401,7 +3736,7 @@
       <c r="C95" t="s">
         <v>388</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="6" t="s">
         <v>389</v>
       </c>
     </row>
@@ -3415,7 +3750,7 @@
       <c r="C96" t="s">
         <v>391</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="6" t="s">
         <v>392</v>
       </c>
     </row>
@@ -3429,7 +3764,7 @@
       <c r="C97" t="s">
         <v>394</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="6" t="s">
         <v>395</v>
       </c>
     </row>
@@ -3443,7 +3778,7 @@
       <c r="C98" t="s">
         <v>398</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="6" t="s">
         <v>397</v>
       </c>
     </row>
@@ -3457,7 +3792,7 @@
       <c r="C99" t="s">
         <v>400</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="6" t="s">
         <v>401</v>
       </c>
     </row>
@@ -3471,7 +3806,7 @@
       <c r="C100" t="s">
         <v>402</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="6" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3485,7 +3820,7 @@
       <c r="C101" t="s">
         <v>407</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="6" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3499,7 +3834,7 @@
       <c r="C102" t="s">
         <v>409</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="6" t="s">
         <v>410</v>
       </c>
     </row>
@@ -3513,7 +3848,7 @@
       <c r="C103" t="s">
         <v>411</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="6" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3527,7 +3862,7 @@
       <c r="C104" t="s">
         <v>414</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="6" t="s">
         <v>416</v>
       </c>
     </row>
@@ -3541,7 +3876,7 @@
       <c r="C105" t="s">
         <v>421</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="6" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3555,7 +3890,7 @@
       <c r="C106" t="s">
         <v>423</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="6" t="s">
         <v>424</v>
       </c>
     </row>
@@ -3569,7 +3904,7 @@
       <c r="C107" t="s">
         <v>427</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="6" t="s">
         <v>428</v>
       </c>
     </row>
@@ -3583,7 +3918,7 @@
       <c r="C108" t="s">
         <v>431</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="6" t="s">
         <v>432</v>
       </c>
     </row>
@@ -3597,7 +3932,7 @@
       <c r="C109" t="s">
         <v>436</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="6" t="s">
         <v>439</v>
       </c>
     </row>
@@ -3611,7 +3946,7 @@
       <c r="C110" t="s">
         <v>438</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="6" t="s">
         <v>440</v>
       </c>
     </row>
@@ -3625,7 +3960,7 @@
       <c r="C111" t="s">
         <v>450</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="6" t="s">
         <v>451</v>
       </c>
     </row>
@@ -3636,10 +3971,10 @@
       <c r="B112" t="s">
         <v>452</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="6" t="s">
         <v>454</v>
       </c>
     </row>
@@ -3653,7 +3988,7 @@
       <c r="C113" t="s">
         <v>456</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="6" t="s">
         <v>457</v>
       </c>
     </row>
@@ -3667,7 +4002,7 @@
       <c r="C114" t="s">
         <v>459</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="6" t="s">
         <v>460</v>
       </c>
     </row>
@@ -3681,7 +4016,7 @@
       <c r="C115" t="s">
         <v>462</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="6" t="s">
         <v>463</v>
       </c>
     </row>
@@ -3695,7 +4030,7 @@
       <c r="C116" t="s">
         <v>465</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="6" t="s">
         <v>466</v>
       </c>
     </row>
@@ -3709,7 +4044,7 @@
       <c r="C117" t="s">
         <v>468</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="6" t="s">
         <v>469</v>
       </c>
     </row>
@@ -3723,7 +4058,7 @@
       <c r="C118" t="s">
         <v>471</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="6" t="s">
         <v>472</v>
       </c>
     </row>
@@ -3737,7 +4072,7 @@
       <c r="C119" t="s">
         <v>479</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="6" t="s">
         <v>480</v>
       </c>
     </row>
@@ -3751,7 +4086,7 @@
       <c r="C120" t="s">
         <v>482</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="6" t="s">
         <v>483</v>
       </c>
     </row>
@@ -3759,13 +4094,13 @@
       <c r="A121" t="s">
         <v>475</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C121" t="s">
         <v>485</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="6" t="s">
         <v>486</v>
       </c>
     </row>
@@ -3779,7 +4114,7 @@
       <c r="C122" t="s">
         <v>488</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="6" t="s">
         <v>489</v>
       </c>
     </row>
@@ -3793,7 +4128,7 @@
       <c r="C123" t="s">
         <v>491</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="6" t="s">
         <v>492</v>
       </c>
     </row>
@@ -3807,8 +4142,358 @@
       <c r="C124" t="s">
         <v>495</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="6" t="s">
         <v>496</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>497</v>
+      </c>
+      <c r="B125" t="s">
+        <v>517</v>
+      </c>
+      <c r="C125" t="s">
+        <v>518</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>498</v>
+      </c>
+      <c r="B126" t="s">
+        <v>520</v>
+      </c>
+      <c r="C126" t="s">
+        <v>521</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>499</v>
+      </c>
+      <c r="B127" t="s">
+        <v>524</v>
+      </c>
+      <c r="C127" t="s">
+        <v>523</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>500</v>
+      </c>
+      <c r="B128" t="s">
+        <v>526</v>
+      </c>
+      <c r="C128" t="s">
+        <v>527</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>501</v>
+      </c>
+      <c r="B129" t="s">
+        <v>529</v>
+      </c>
+      <c r="C129" t="s">
+        <v>530</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>502</v>
+      </c>
+      <c r="B130" t="s">
+        <v>532</v>
+      </c>
+      <c r="C130" t="s">
+        <v>533</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>503</v>
+      </c>
+      <c r="B131" t="s">
+        <v>535</v>
+      </c>
+      <c r="C131" t="s">
+        <v>536</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>504</v>
+      </c>
+      <c r="B132" t="s">
+        <v>538</v>
+      </c>
+      <c r="C132" t="s">
+        <v>539</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>505</v>
+      </c>
+      <c r="B133" t="s">
+        <v>541</v>
+      </c>
+      <c r="C133" t="s">
+        <v>542</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>506</v>
+      </c>
+      <c r="B134" t="s">
+        <v>544</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>507</v>
+      </c>
+      <c r="B135" t="s">
+        <v>547</v>
+      </c>
+      <c r="C135" t="s">
+        <v>548</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>508</v>
+      </c>
+      <c r="B136" t="s">
+        <v>550</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>509</v>
+      </c>
+      <c r="B137" t="s">
+        <v>553</v>
+      </c>
+      <c r="C137" t="s">
+        <v>554</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>510</v>
+      </c>
+      <c r="B138" t="s">
+        <v>556</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>511</v>
+      </c>
+      <c r="B139" t="s">
+        <v>559</v>
+      </c>
+      <c r="C139" t="s">
+        <v>560</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>512</v>
+      </c>
+      <c r="B140" t="s">
+        <v>562</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>513</v>
+      </c>
+      <c r="B141" t="s">
+        <v>565</v>
+      </c>
+      <c r="C141" t="s">
+        <v>566</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>514</v>
+      </c>
+      <c r="B142" t="s">
+        <v>568</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>515</v>
+      </c>
+      <c r="B143" t="s">
+        <v>571</v>
+      </c>
+      <c r="C143" t="s">
+        <v>572</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>516</v>
+      </c>
+      <c r="B144" t="s">
+        <v>574</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>577</v>
+      </c>
+      <c r="B145" t="s">
+        <v>582</v>
+      </c>
+      <c r="C145" t="s">
+        <v>583</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>578</v>
+      </c>
+      <c r="B146" t="s">
+        <v>585</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>579</v>
+      </c>
+      <c r="B147" t="s">
+        <v>588</v>
+      </c>
+      <c r="C147" t="s">
+        <v>589</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>580</v>
+      </c>
+      <c r="B148" t="s">
+        <v>591</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>581</v>
+      </c>
+      <c r="B149" t="s">
+        <v>594</v>
+      </c>
+      <c r="C149" t="s">
+        <v>595</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Dropbox\AGORA_AE\MOOTUS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9236B3F-8118-4619-9E03-83D9F3FBE80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBA173F-BB1B-4A43-AD97-235F1CA9C856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
+    <workbookView xWindow="1140" yWindow="-98" windowWidth="9758" windowHeight="16395" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="601">
   <si>
     <t>release</t>
   </si>
@@ -1977,6 +1977,18 @@
   <si>
     <t>Établissement d’enseignement secondaire supérieur, dont la fréquentation fait suite à celle de l’école secondaire, se termine par les examens de maturité et permet l’accès à l’université. Vous entendrez également lycée ou collège dans certains cantons. 
 « [...] du point de vue culturel [...] pour beaucoup, le gymnase restera la période d'apprentissage la plus riche et la plus féconde. Et cela précisément parce qu'elle n'est pas encore spécialisée, mais parce qu'elle a pour vocation d'ouvrir des fenêtres à la curiosité de l'esprit. » ( L'Hebdo, 3 juin 1993, p. 49.)</t>
+  </si>
+  <si>
+    <t>day_149</t>
+  </si>
+  <si>
+    <t>raguiller</t>
+  </si>
+  <si>
+    <t>Raguiller (v. trans.)</t>
+  </si>
+  <si>
+    <t>Régionalisme propre à Neuchâtel, Vaud et Fribourg, utilisé pour dire redresser ou remettre d'aplomb. On raguille les quilles au bowling (de Vidy !), par exemple.</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2059,7 +2071,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2394,18 +2405,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="10.90625" style="6"/>
+    <col min="4" max="4" width="10.9296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2415,14 +2426,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2432,11 +2443,11 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2446,11 +2457,11 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2460,11 +2471,11 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2474,11 +2485,11 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2488,11 +2499,11 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2502,11 +2513,11 @@
       <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2516,11 +2527,11 @@
       <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2530,11 +2541,11 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2544,11 +2555,11 @@
       <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2558,11 +2569,11 @@
       <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2572,11 +2583,11 @@
       <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -2586,11 +2597,11 @@
       <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2600,11 +2611,11 @@
       <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -2614,11 +2625,11 @@
       <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2628,11 +2639,11 @@
       <c r="C16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2642,11 +2653,11 @@
       <c r="C17" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -2656,11 +2667,11 @@
       <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -2670,11 +2681,11 @@
       <c r="C19" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -2684,11 +2695,11 @@
       <c r="C20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -2698,11 +2709,11 @@
       <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -2712,11 +2723,11 @@
       <c r="C22" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -2726,11 +2737,11 @@
       <c r="C23" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -2740,11 +2751,11 @@
       <c r="C24" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -2754,11 +2765,11 @@
       <c r="C25" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -2768,11 +2779,11 @@
       <c r="C26" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -2782,11 +2793,11 @@
       <c r="C27" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -2796,12 +2807,12 @@
       <c r="C28" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" t="s">
         <v>117</v>
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -2811,11 +2822,11 @@
       <c r="C29" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -2825,11 +2836,11 @@
       <c r="C30" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -2839,11 +2850,11 @@
       <c r="C31" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -2853,11 +2864,11 @@
       <c r="C32" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -2867,11 +2878,11 @@
       <c r="C33" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -2881,11 +2892,11 @@
       <c r="C34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -2895,11 +2906,11 @@
       <c r="C35" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -2909,12 +2920,12 @@
       <c r="C36" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" t="s">
         <v>144</v>
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>133</v>
       </c>
@@ -2924,11 +2935,11 @@
       <c r="C37" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>134</v>
       </c>
@@ -2938,11 +2949,11 @@
       <c r="C38" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>135</v>
       </c>
@@ -2952,11 +2963,11 @@
       <c r="C39" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -2966,11 +2977,11 @@
       <c r="C40" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -2980,11 +2991,11 @@
       <c r="C41" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -2994,11 +3005,11 @@
       <c r="C42" t="s">
         <v>161</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>169</v>
       </c>
@@ -3008,11 +3019,11 @@
       <c r="C43" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -3022,11 +3033,11 @@
       <c r="C44" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>171</v>
       </c>
@@ -3036,11 +3047,11 @@
       <c r="C45" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>172</v>
       </c>
@@ -3050,11 +3061,11 @@
       <c r="C46" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>173</v>
       </c>
@@ -3064,11 +3075,11 @@
       <c r="C47" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -3078,11 +3089,11 @@
       <c r="C48" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>175</v>
       </c>
@@ -3092,11 +3103,11 @@
       <c r="C49" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -3106,11 +3117,11 @@
       <c r="C50" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>177</v>
       </c>
@@ -3120,11 +3131,11 @@
       <c r="C51" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>178</v>
       </c>
@@ -3134,11 +3145,11 @@
       <c r="C52" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>179</v>
       </c>
@@ -3148,11 +3159,11 @@
       <c r="C53" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>213</v>
       </c>
@@ -3162,11 +3173,11 @@
       <c r="C54" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>214</v>
       </c>
@@ -3176,11 +3187,11 @@
       <c r="C55" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>215</v>
       </c>
@@ -3190,11 +3201,11 @@
       <c r="C56" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>216</v>
       </c>
@@ -3204,11 +3215,11 @@
       <c r="C57" t="s">
         <v>234</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -3218,11 +3229,11 @@
       <c r="C58" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>218</v>
       </c>
@@ -3232,11 +3243,11 @@
       <c r="C59" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>219</v>
       </c>
@@ -3246,11 +3257,11 @@
       <c r="C60" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>220</v>
       </c>
@@ -3264,7 +3275,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>221</v>
       </c>
@@ -3274,11 +3285,11 @@
       <c r="C62" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>222</v>
       </c>
@@ -3288,11 +3299,11 @@
       <c r="C63" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>250</v>
       </c>
@@ -3302,11 +3313,11 @@
       <c r="C64" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>256</v>
       </c>
@@ -3316,11 +3327,11 @@
       <c r="C65" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>257</v>
       </c>
@@ -3330,11 +3341,11 @@
       <c r="C66" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>258</v>
       </c>
@@ -3344,11 +3355,11 @@
       <c r="C67" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>259</v>
       </c>
@@ -3358,11 +3369,11 @@
       <c r="C68" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>260</v>
       </c>
@@ -3372,11 +3383,11 @@
       <c r="C69" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>261</v>
       </c>
@@ -3386,11 +3397,11 @@
       <c r="C70" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>262</v>
       </c>
@@ -3400,11 +3411,11 @@
       <c r="C71" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>263</v>
       </c>
@@ -3414,11 +3425,11 @@
       <c r="C72" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -3428,11 +3439,11 @@
       <c r="C73" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>265</v>
       </c>
@@ -3442,11 +3453,11 @@
       <c r="C74" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>297</v>
       </c>
@@ -3456,11 +3467,11 @@
       <c r="C75" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>298</v>
       </c>
@@ -3470,11 +3481,11 @@
       <c r="C76" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>299</v>
       </c>
@@ -3484,11 +3495,11 @@
       <c r="C77" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>300</v>
       </c>
@@ -3498,11 +3509,11 @@
       <c r="C78" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>301</v>
       </c>
@@ -3512,11 +3523,11 @@
       <c r="C79" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>302</v>
       </c>
@@ -3526,11 +3537,11 @@
       <c r="C80" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>303</v>
       </c>
@@ -3540,11 +3551,11 @@
       <c r="C81" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>304</v>
       </c>
@@ -3554,11 +3565,11 @@
       <c r="C82" t="s">
         <v>327</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>305</v>
       </c>
@@ -3568,11 +3579,11 @@
       <c r="C83" t="s">
         <v>329</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>331</v>
       </c>
@@ -3582,11 +3593,11 @@
       <c r="C84" t="s">
         <v>337</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>332</v>
       </c>
@@ -3596,11 +3607,11 @@
       <c r="C85" t="s">
         <v>344</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>333</v>
       </c>
@@ -3610,11 +3621,11 @@
       <c r="C86" t="s">
         <v>345</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>334</v>
       </c>
@@ -3624,11 +3635,11 @@
       <c r="C87" t="s">
         <v>349</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>335</v>
       </c>
@@ -3638,11 +3649,11 @@
       <c r="C88" t="s">
         <v>351</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>336</v>
       </c>
@@ -3652,11 +3663,11 @@
       <c r="C89" t="s">
         <v>354</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>357</v>
       </c>
@@ -3666,11 +3677,11 @@
       <c r="C90" t="s">
         <v>359</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>361</v>
       </c>
@@ -3680,11 +3691,11 @@
       <c r="C91" t="s">
         <v>363</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>365</v>
       </c>
@@ -3694,11 +3705,11 @@
       <c r="C92" t="s">
         <v>367</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>369</v>
       </c>
@@ -3708,11 +3719,11 @@
       <c r="C93" t="s">
         <v>382</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>370</v>
       </c>
@@ -3722,11 +3733,11 @@
       <c r="C94" t="s">
         <v>385</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>371</v>
       </c>
@@ -3736,11 +3747,11 @@
       <c r="C95" t="s">
         <v>388</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>372</v>
       </c>
@@ -3750,11 +3761,11 @@
       <c r="C96" t="s">
         <v>391</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>373</v>
       </c>
@@ -3764,11 +3775,11 @@
       <c r="C97" t="s">
         <v>394</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>374</v>
       </c>
@@ -3778,11 +3789,11 @@
       <c r="C98" t="s">
         <v>398</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>375</v>
       </c>
@@ -3792,11 +3803,11 @@
       <c r="C99" t="s">
         <v>400</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>376</v>
       </c>
@@ -3806,11 +3817,11 @@
       <c r="C100" t="s">
         <v>402</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>377</v>
       </c>
@@ -3820,11 +3831,11 @@
       <c r="C101" t="s">
         <v>407</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>378</v>
       </c>
@@ -3834,11 +3845,11 @@
       <c r="C102" t="s">
         <v>409</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>379</v>
       </c>
@@ -3848,11 +3859,11 @@
       <c r="C103" t="s">
         <v>411</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>380</v>
       </c>
@@ -3862,11 +3873,11 @@
       <c r="C104" t="s">
         <v>414</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>417</v>
       </c>
@@ -3876,11 +3887,11 @@
       <c r="C105" t="s">
         <v>421</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>418</v>
       </c>
@@ -3890,11 +3901,11 @@
       <c r="C106" t="s">
         <v>423</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>425</v>
       </c>
@@ -3904,11 +3915,11 @@
       <c r="C107" t="s">
         <v>427</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>429</v>
       </c>
@@ -3918,11 +3929,11 @@
       <c r="C108" t="s">
         <v>431</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>433</v>
       </c>
@@ -3932,11 +3943,11 @@
       <c r="C109" t="s">
         <v>436</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>434</v>
       </c>
@@ -3946,11 +3957,11 @@
       <c r="C110" t="s">
         <v>438</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>441</v>
       </c>
@@ -3960,11 +3971,11 @@
       <c r="C111" t="s">
         <v>450</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>442</v>
       </c>
@@ -3974,11 +3985,11 @@
       <c r="C112" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>443</v>
       </c>
@@ -3988,11 +3999,11 @@
       <c r="C113" t="s">
         <v>456</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>444</v>
       </c>
@@ -4002,11 +4013,11 @@
       <c r="C114" t="s">
         <v>459</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>445</v>
       </c>
@@ -4016,11 +4027,11 @@
       <c r="C115" t="s">
         <v>462</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>446</v>
       </c>
@@ -4030,11 +4041,11 @@
       <c r="C116" t="s">
         <v>465</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>447</v>
       </c>
@@ -4044,11 +4055,11 @@
       <c r="C117" t="s">
         <v>468</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>448</v>
       </c>
@@ -4058,11 +4069,11 @@
       <c r="C118" t="s">
         <v>471</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>473</v>
       </c>
@@ -4072,11 +4083,11 @@
       <c r="C119" t="s">
         <v>479</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D119" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>474</v>
       </c>
@@ -4086,11 +4097,11 @@
       <c r="C120" t="s">
         <v>482</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>475</v>
       </c>
@@ -4100,11 +4111,11 @@
       <c r="C121" t="s">
         <v>485</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>476</v>
       </c>
@@ -4114,11 +4125,11 @@
       <c r="C122" t="s">
         <v>488</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>477</v>
       </c>
@@ -4128,11 +4139,11 @@
       <c r="C123" t="s">
         <v>491</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>493</v>
       </c>
@@ -4142,11 +4153,11 @@
       <c r="C124" t="s">
         <v>495</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>497</v>
       </c>
@@ -4156,11 +4167,11 @@
       <c r="C125" t="s">
         <v>518</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>498</v>
       </c>
@@ -4170,11 +4181,11 @@
       <c r="C126" t="s">
         <v>521</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>499</v>
       </c>
@@ -4184,11 +4195,11 @@
       <c r="C127" t="s">
         <v>523</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>500</v>
       </c>
@@ -4198,11 +4209,11 @@
       <c r="C128" t="s">
         <v>527</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="D128" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>501</v>
       </c>
@@ -4212,11 +4223,11 @@
       <c r="C129" t="s">
         <v>530</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D129" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>502</v>
       </c>
@@ -4226,11 +4237,11 @@
       <c r="C130" t="s">
         <v>533</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="D130" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>503</v>
       </c>
@@ -4240,11 +4251,11 @@
       <c r="C131" t="s">
         <v>536</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="D131" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>504</v>
       </c>
@@ -4254,11 +4265,11 @@
       <c r="C132" t="s">
         <v>539</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="D132" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>505</v>
       </c>
@@ -4268,11 +4279,11 @@
       <c r="C133" t="s">
         <v>542</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D133" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>506</v>
       </c>
@@ -4282,11 +4293,11 @@
       <c r="C134" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="D134" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>507</v>
       </c>
@@ -4296,11 +4307,11 @@
       <c r="C135" t="s">
         <v>548</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D135" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>508</v>
       </c>
@@ -4310,11 +4321,11 @@
       <c r="C136" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>509</v>
       </c>
@@ -4324,11 +4335,11 @@
       <c r="C137" t="s">
         <v>554</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>510</v>
       </c>
@@ -4338,11 +4349,11 @@
       <c r="C138" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D138" s="6" t="s">
+      <c r="D138" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>511</v>
       </c>
@@ -4352,11 +4363,11 @@
       <c r="C139" t="s">
         <v>560</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D139" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>512</v>
       </c>
@@ -4366,11 +4377,11 @@
       <c r="C140" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>513</v>
       </c>
@@ -4380,11 +4391,11 @@
       <c r="C141" t="s">
         <v>566</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>514</v>
       </c>
@@ -4394,11 +4405,11 @@
       <c r="C142" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>515</v>
       </c>
@@ -4408,11 +4419,11 @@
       <c r="C143" t="s">
         <v>572</v>
       </c>
-      <c r="D143" s="6" t="s">
+      <c r="D143" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>516</v>
       </c>
@@ -4422,11 +4433,11 @@
       <c r="C144" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D144" s="6" t="s">
+      <c r="D144" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>577</v>
       </c>
@@ -4436,11 +4447,11 @@
       <c r="C145" t="s">
         <v>583</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D145" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>578</v>
       </c>
@@ -4450,11 +4461,11 @@
       <c r="C146" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="D146" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>579</v>
       </c>
@@ -4464,11 +4475,11 @@
       <c r="C147" t="s">
         <v>589</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D147" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>580</v>
       </c>
@@ -4478,11 +4489,11 @@
       <c r="C148" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="D148" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>581</v>
       </c>
@@ -4492,8 +4503,22 @@
       <c r="C149" t="s">
         <v>595</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="D149" t="s">
         <v>596</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>597</v>
+      </c>
+      <c r="B150" t="s">
+        <v>598</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D150" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/data/Devine-voir_words.xlsx
+++ b/data/Devine-voir_words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBA173F-BB1B-4A43-AD97-235F1CA9C856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF83EAC5-5F63-433F-869B-DF204E871C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="-98" windowWidth="9758" windowHeight="16395" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{BC5DAF53-4B63-4D6A-8B7C-74E6FE683706}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="629">
   <si>
     <t>release</t>
   </si>
@@ -1989,13 +1989,117 @@
   </si>
   <si>
     <t>Régionalisme propre à Neuchâtel, Vaud et Fribourg, utilisé pour dire redresser ou remettre d'aplomb. On raguille les quilles au bowling (de Vidy !), par exemple.</t>
+  </si>
+  <si>
+    <t>day_150</t>
+  </si>
+  <si>
+    <t>day_151</t>
+  </si>
+  <si>
+    <t>day_152</t>
+  </si>
+  <si>
+    <t>day_153</t>
+  </si>
+  <si>
+    <t>day_154</t>
+  </si>
+  <si>
+    <t>day_155</t>
+  </si>
+  <si>
+    <t>cuchaule</t>
+  </si>
+  <si>
+    <t>Cuchaule (n.f.)</t>
+  </si>
+  <si>
+    <t>Pâtisserie ronde et aplatie dont la pâte au lait légèrement sucrée et safranée rappelle celle de la brioche, et que l'on consomme en particulier lors de la bénichon. Le produit est originaire du canton de Fribourg, mais il y a une connaissance passive dans les autres cantons.
+« Le groupe hétéroclite formé des pâtes à «madeleines», «zwiebacks»et «cuchaules» se distingue par la présence de sucre dans chacune d'elles. » (P. Rossel, Du pain sur la planche/ Ethnographie d'une boulangerie lausannoise, 1982, p.79)</t>
+  </si>
+  <si>
+    <t>jubilaire</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jubilaire </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>(n.m ou f.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Personne (ou aussi institution) qui célèbre un « jubilé » ; un jubilé, c’est une petite fête, célébration qui marque l'anniversaire (cinquantenaire ou autre) d'une entrée en fonction, de la création d'une société, d'un club, d'une entreprise, etc. . La différence avec le mot de référence est que « jubilé » et « jubilaire » s’utilisent uniquement pour les cinquantaines, alors qu’en Suisse, non.
+« Tout le monde l'a su, la Thérèse [...] a fêté ses soixante balais le printemps dernier. [...] Les choses se compliquent au plat principal, lorsque l'Henri se fait incendier par la jubilaire, celle-ci constatant que le personnel oublie son verre lors du service du vin rouge. » (Le Poilie, 1995, p. 2).</t>
+  </si>
+  <si>
+    <t>sautier</t>
+  </si>
+  <si>
+    <t>Sautier (n. m.)</t>
+  </si>
+  <si>
+    <t>Terme propre à Genève, puisque il désigne le secrétaire administratif du Grand Conseil de Genève.
+« Le cahier des charges établi pour la recherche du 57e sautier [...] maintient la plupart des fonctions [...] avec un nouveau critère déterminant : de solides connaissances en informatique. » (
+Le Nouveau Quotidien, 19 août 1996, p. 9)</t>
+  </si>
+  <si>
+    <t>cramias</t>
+  </si>
+  <si>
+    <t>Cramias (n. m. pl.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S’écrit aussi « cramiats ». Les cramias, c’est les pissenlits (surtout les feuilles) ! Au moins, dans le Jura et Jura bernois ; ailleurs, on préfère dire « dent de lion ». C’est tout bientôt la saison !
+« Si tu veux dix sous, va d'abord me remplir une cratte [en italique dans le texte] de cramiats [en italique dans le texte] dans les champs » (F. Bourquin et al., Le pays, la langue, 1985, p. 107).
+</t>
+  </si>
+  <si>
+    <t>buchille</t>
+  </si>
+  <si>
+    <t>Bûchille (n. f.)</t>
+  </si>
+  <si>
+    <t>Simple écharde, mais aussi éclats de bois génériques et autres copeaux. 
+« [...] c'est l'an dernier seulement qu'elle [une formation musicale] décida de prendre sa propre appellation et d'évoluer dorénavant sous le nom de Boutsedons ou, traduit en français... les buchilles [sic], copeaux! Mais attention, des «buchilles [sic] musicales» du meilleur effet placées sous la direction d'un musicien reconnu dans la région [...]. » (Nouvelliste et Feuille d'Avis du Valais, 20 juillet 1977, p. 15)</t>
+  </si>
+  <si>
+    <t>groise</t>
+  </si>
+  <si>
+    <t>Groise (n. f.)</t>
+  </si>
+  <si>
+    <t>Gravier mêlé de marne pour l'empierrement superficiel des chemins vicinaux. Principalement employé dans les cantons du Jura et Neuchâtel.
+« Abéqués sur des tas de «groise» ou à l'ombre d'un arbre, ils ouvraient leurs vieux sacs militaires, mités par endroits, et en sortaient leurs provisions. » (M.-F. Schenk, Notre autrefois, 1993, p. 43)</t>
+  </si>
+  <si>
+    <t>day_156</t>
+  </si>
+  <si>
+    <t>primitif</t>
+  </si>
+  <si>
+    <t>Primitif (n. m.)</t>
+  </si>
+  <si>
+    <t>Terme utilisé pour désigner ce qui est relatif aux origines de la Confédération suisse : La Suisse primitive, les cantons primitifs (Uri, Schwyz, Nidwald et Obwald). Malgré ce que l’on pourrait penser, le terme n’a jamais une connotation négative.
+« La droite profonde est bien connue. [...] C'est elle qui rote des slogans patriotiques au fond des cantons primitifs helvétiques. » (Le Nouveau Quotidien, 3 juillet 1995, p. 2).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2029,6 +2133,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2056,7 +2173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2071,6 +2188,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2405,18 +2526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABED74-2F95-4F3A-92F3-7E4C205FAA20}">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E155" sqref="E155"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="4" max="4" width="10.9296875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2433,7 +2551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2447,7 +2565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2461,7 +2579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2475,7 +2593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2489,7 +2607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2503,7 +2621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2517,7 +2635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2531,7 +2649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2545,7 +2663,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2559,7 +2677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2573,7 +2691,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2587,7 +2705,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -2601,7 +2719,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2615,7 +2733,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -2629,7 +2747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2643,7 +2761,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2657,7 +2775,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -2671,7 +2789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -2685,7 +2803,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -2699,7 +2817,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -2713,7 +2831,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -2727,7 +2845,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -2741,7 +2859,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -2755,7 +2873,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -2769,7 +2887,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -2783,7 +2901,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -2797,7 +2915,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -2812,7 +2930,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -2826,7 +2944,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -2840,7 +2958,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -2854,7 +2972,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -2868,7 +2986,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -2882,7 +3000,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -2896,7 +3014,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -2910,7 +3028,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -2925,7 +3043,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>133</v>
       </c>
@@ -2939,7 +3057,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>134</v>
       </c>
@@ -2953,7 +3071,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>135</v>
       </c>
@@ -2967,7 +3085,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -2981,7 +3099,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -2995,7 +3113,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -3009,7 +3127,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>169</v>
       </c>
@@ -3023,7 +3141,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -3037,7 +3155,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>171</v>
       </c>
@@ -3051,7 +3169,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>172</v>
       </c>
@@ -3065,7 +3183,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>173</v>
       </c>
@@ -3079,7 +3197,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -3093,7 +3211,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>175</v>
       </c>
@@ -3107,7 +3225,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -3121,7 +3239,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>177</v>
       </c>
@@ -3135,7 +3253,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>178</v>
       </c>
@@ -3149,7 +3267,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>179</v>
       </c>
@@ -3163,7 +3281,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>213</v>
       </c>
@@ -3177,7 +3295,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>214</v>
       </c>
@@ -3191,7 +3309,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>215</v>
       </c>
@@ -3205,7 +3323,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>216</v>
       </c>
@@ -3219,7 +3337,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -3233,7 +3351,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>218</v>
       </c>
@@ -3247,7 +3365,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>219</v>
       </c>
@@ -3261,7 +3379,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>220</v>
       </c>
@@ -3275,7 +3393,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>221</v>
       </c>
@@ -3289,7 +3407,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>222</v>
       </c>
@@ -3303,7 +3421,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>250</v>
       </c>
@@ -3317,7 +3435,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>256</v>
       </c>
@@ -3331,7 +3449,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>257</v>
       </c>
@@ -3345,7 +3463,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>258</v>
       </c>
@@ -3359,7 +3477,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>259</v>
       </c>
@@ -3373,7 +3491,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>260</v>
       </c>
@@ -3387,7 +3505,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>261</v>
       </c>
@@ -3401,7 +3519,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>262</v>
       </c>
@@ -3415,7 +3533,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>263</v>
       </c>
@@ -3429,7 +3547,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -3443,7 +3561,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>265</v>
       </c>
@@ -3457,7 +3575,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>297</v>
       </c>
@@ -3471,7 +3589,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>298</v>
       </c>
@@ -3485,7 +3603,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>299</v>
       </c>
@@ -3499,7 +3617,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>300</v>
       </c>
@@ -3513,7 +3631,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>301</v>
       </c>
@@ -3527,7 +3645,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>302</v>
       </c>
@@ -3541,7 +3659,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>303</v>
       </c>
@@ -3555,7 +3673,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>304</v>
       </c>
@@ -3569,7 +3687,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>305</v>
       </c>
@@ -3583,7 +3701,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>331</v>
       </c>
@@ -3597,7 +3715,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>332</v>
       </c>
@@ -3611,7 +3729,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>333</v>
       </c>
@@ -3625,7 +3743,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>334</v>
       </c>
@@ -3639,7 +3757,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>335</v>
       </c>
@@ -3653,7 +3771,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>336</v>
       </c>
@@ -3667,7 +3785,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>357</v>
       </c>
@@ -3681,7 +3799,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>361</v>
       </c>
@@ -3695,7 +3813,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>365</v>
       </c>
@@ -3709,7 +3827,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>369</v>
       </c>
@@ -3723,7 +3841,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>370</v>
       </c>
@@ -3737,7 +3855,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>371</v>
       </c>
@@ -3751,7 +3869,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>372</v>
       </c>
@@ -3765,7 +3883,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>373</v>
       </c>
@@ -3779,7 +3897,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>374</v>
       </c>
@@ -3793,7 +3911,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>375</v>
       </c>
@@ -3807,7 +3925,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>376</v>
       </c>
@@ -3821,7 +3939,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>377</v>
       </c>
@@ -3835,7 +3953,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>378</v>
       </c>
@@ -3849,7 +3967,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>379</v>
       </c>
@@ -3863,7 +3981,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>380</v>
       </c>
@@ -3877,7 +3995,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>417</v>
       </c>
@@ -3891,7 +4009,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>418</v>
       </c>
@@ -3905,7 +4023,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>425</v>
       </c>
@@ -3919,7 +4037,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>429</v>
       </c>
@@ -3933,7 +4051,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>433</v>
       </c>
@@ -3947,7 +4065,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>434</v>
       </c>
@@ -3961,7 +4079,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>441</v>
       </c>
@@ -3975,7 +4093,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>442</v>
       </c>
@@ -3989,7 +4107,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>443</v>
       </c>
@@ -4003,7 +4121,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>444</v>
       </c>
@@ -4017,7 +4135,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>445</v>
       </c>
@@ -4031,7 +4149,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>446</v>
       </c>
@@ -4045,7 +4163,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>447</v>
       </c>
@@ -4059,7 +4177,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>448</v>
       </c>
@@ -4073,7 +4191,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>473</v>
       </c>
@@ -4087,7 +4205,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>474</v>
       </c>
@@ -4101,7 +4219,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>475</v>
       </c>
@@ -4115,7 +4233,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>476</v>
       </c>
@@ -4129,7 +4247,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>477</v>
       </c>
@@ -4143,7 +4261,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>493</v>
       </c>
@@ -4157,7 +4275,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>497</v>
       </c>
@@ -4171,7 +4289,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>498</v>
       </c>
@@ -4185,7 +4303,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>499</v>
       </c>
@@ -4199,7 +4317,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>500</v>
       </c>
@@ -4213,7 +4331,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>501</v>
       </c>
@@ -4227,7 +4345,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>502</v>
       </c>
@@ -4241,7 +4359,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>503</v>
       </c>
@@ -4255,7 +4373,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>504</v>
       </c>
@@ -4269,7 +4387,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>505</v>
       </c>
@@ -4283,7 +4401,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>506</v>
       </c>
@@ -4297,7 +4415,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>507</v>
       </c>
@@ -4311,7 +4429,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>508</v>
       </c>
@@ -4325,7 +4443,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>509</v>
       </c>
@@ -4339,7 +4457,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>510</v>
       </c>
@@ -4353,7 +4471,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>511</v>
       </c>
@@ -4367,7 +4485,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>512</v>
       </c>
@@ -4381,7 +4499,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>513</v>
       </c>
@@ -4395,7 +4513,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>514</v>
       </c>
@@ -4409,7 +4527,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>515</v>
       </c>
@@ -4423,7 +4541,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>516</v>
       </c>
@@ -4437,7 +4555,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>577</v>
       </c>
@@ -4451,7 +4569,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>578</v>
       </c>
@@ -4465,7 +4583,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>579</v>
       </c>
@@ -4479,7 +4597,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>580</v>
       </c>
@@ -4493,7 +4611,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>581</v>
       </c>
@@ -4507,7 +4625,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>597</v>
       </c>
@@ -4519,6 +4637,104 @@
       </c>
       <c r="D150" t="s">
         <v>600</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>601</v>
+      </c>
+      <c r="B151" t="s">
+        <v>607</v>
+      </c>
+      <c r="C151" t="s">
+        <v>608</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>602</v>
+      </c>
+      <c r="B152" t="s">
+        <v>610</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>603</v>
+      </c>
+      <c r="B153" t="s">
+        <v>613</v>
+      </c>
+      <c r="C153" t="s">
+        <v>614</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>604</v>
+      </c>
+      <c r="B154" t="s">
+        <v>616</v>
+      </c>
+      <c r="C154" t="s">
+        <v>617</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>605</v>
+      </c>
+      <c r="B155" t="s">
+        <v>619</v>
+      </c>
+      <c r="C155" t="s">
+        <v>620</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>606</v>
+      </c>
+      <c r="B156" t="s">
+        <v>622</v>
+      </c>
+      <c r="C156" t="s">
+        <v>623</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>625</v>
+      </c>
+      <c r="B157" t="s">
+        <v>626</v>
+      </c>
+      <c r="C157" t="s">
+        <v>627</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
